--- a/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.778033140294667</v>
+        <v>2.516079964216829</v>
       </c>
       <c r="C2">
-        <v>0.3764654688108635</v>
+        <v>0.6149010174913201</v>
       </c>
       <c r="D2">
-        <v>0.3485656055488136</v>
+        <v>0.02630357872804368</v>
       </c>
       <c r="E2">
-        <v>0.247598153116023</v>
+        <v>0.1985817754499237</v>
       </c>
       <c r="F2">
-        <v>6.527234798704285</v>
+        <v>2.06232236898741</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,33 +448,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4758480572250647</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.818819185891968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9779506186288316</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.645708059248463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.520519405821801</v>
+        <v>2.169448543877877</v>
       </c>
       <c r="C3">
-        <v>0.3209828351288593</v>
+        <v>0.5338962376024199</v>
       </c>
       <c r="D3">
-        <v>0.3096937836311753</v>
+        <v>0.02655325148296583</v>
       </c>
       <c r="E3">
-        <v>0.2140104000226017</v>
+        <v>0.1726346202321736</v>
       </c>
       <c r="F3">
-        <v>5.727792625366391</v>
+        <v>1.829128697346349</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -483,33 +495,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4061470727956973</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7013899696849961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8413799147417436</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.465291661201277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366676275569858</v>
+        <v>1.959446283990616</v>
       </c>
       <c r="C4">
-        <v>0.287902664170204</v>
+        <v>0.4847073305058416</v>
       </c>
       <c r="D4">
-        <v>0.2863643781049063</v>
+        <v>0.026775921164365</v>
       </c>
       <c r="E4">
-        <v>0.1939255072432289</v>
+        <v>0.1571847633728751</v>
       </c>
       <c r="F4">
-        <v>5.248353662817692</v>
+        <v>1.690595811045327</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -524,33 +542,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.364525751715135</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6312315900343179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7590170188689456</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.358340999877299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.30489887711434</v>
+        <v>1.874463927173309</v>
       </c>
       <c r="C5">
-        <v>0.2746289140688418</v>
+        <v>0.4647725586208935</v>
       </c>
       <c r="D5">
-        <v>0.2769696013877194</v>
+        <v>0.02688237045861541</v>
       </c>
       <c r="E5">
-        <v>0.1858558685131797</v>
+        <v>0.150994253095881</v>
       </c>
       <c r="F5">
-        <v>5.055411298001872</v>
+        <v>1.635178203705124</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -565,33 +589,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.347815164989143</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.603057052883365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.725772094349864</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.315611070088195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.294691729332101</v>
+        <v>1.860385418454285</v>
       </c>
       <c r="C6">
-        <v>0.2724361837435225</v>
+        <v>0.4614682932428877</v>
       </c>
       <c r="D6">
-        <v>0.2754157487113389</v>
+        <v>0.02690094778419549</v>
       </c>
       <c r="E6">
-        <v>0.1845223152872322</v>
+        <v>0.149972259686983</v>
       </c>
       <c r="F6">
-        <v>5.023508350114128</v>
+        <v>1.626035026028006</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -606,33 +636,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3450542879530403</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5984018071924808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7202694894115211</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.308564340233616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365839616874212</v>
+        <v>1.958297918296523</v>
       </c>
       <c r="C7">
-        <v>0.2877228639970753</v>
+        <v>0.4844380721686719</v>
       </c>
       <c r="D7">
-        <v>0.2862372516003262</v>
+        <v>0.02677729533083451</v>
       </c>
       <c r="E7">
-        <v>0.1938162362491838</v>
+        <v>0.1571008688012938</v>
       </c>
       <c r="F7">
-        <v>5.245742270314565</v>
+        <v>1.689844404186076</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -647,33 +683,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3642994287990717</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6308500264955583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.7585674470488826</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.357761410676105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.688254174770066</v>
+        <v>2.395900194503838</v>
       </c>
       <c r="C8">
-        <v>0.3571038329904468</v>
+        <v>0.5868391513122617</v>
       </c>
       <c r="D8">
-        <v>0.3350361746081774</v>
+        <v>0.02637416604247278</v>
       </c>
       <c r="E8">
-        <v>0.2358925129748357</v>
+        <v>0.1895252479258929</v>
       </c>
       <c r="F8">
-        <v>6.248936588953654</v>
+        <v>1.98086817607826</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -688,33 +730,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4515423552094191</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7778794202638082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.9305155721719061</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.582637885618922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.362703328547923</v>
+        <v>3.28241765986138</v>
       </c>
       <c r="C9">
-        <v>0.5031581866027466</v>
+        <v>0.793416552604981</v>
       </c>
       <c r="D9">
-        <v>0.4361993436745166</v>
+        <v>0.02622302905113472</v>
       </c>
       <c r="E9">
-        <v>0.3237250462529673</v>
+        <v>0.2577316804217418</v>
       </c>
       <c r="F9">
-        <v>8.329592957293869</v>
+        <v>2.595177410012809</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -729,33 +777,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6343096868901696</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.085444685066584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.282418942063956</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.059458106711048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.897667324599695</v>
+        <v>3.960461169470022</v>
       </c>
       <c r="C10">
-        <v>0.6201793562082685</v>
+        <v>0.9509766767504857</v>
       </c>
       <c r="D10">
-        <v>0.5158246698927371</v>
+        <v>0.02664579599190375</v>
       </c>
       <c r="E10">
-        <v>0.3932326237779478</v>
+        <v>0.311938406026826</v>
       </c>
       <c r="F10">
-        <v>9.964721394198307</v>
+        <v>3.083738106318464</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -770,33 +824,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7796175610769538</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.329457903683505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.554515420763082</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.440305406516345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.15344311774669</v>
+        <v>4.277205240597539</v>
       </c>
       <c r="C11">
-        <v>0.6765504616968769</v>
+        <v>1.024515505354486</v>
       </c>
       <c r="D11">
-        <v>0.553744781733684</v>
+        <v>0.02699325434721089</v>
       </c>
       <c r="E11">
-        <v>0.4264179757640676</v>
+        <v>0.3378282734424971</v>
       </c>
       <c r="F11">
-        <v>10.74204935060095</v>
+        <v>3.316877896447693</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -811,33 +871,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8492134675527012</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.4461537888278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.682456473752495</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.622475693768905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.252484565050622</v>
+        <v>4.398584823171461</v>
       </c>
       <c r="C12">
-        <v>0.6984559086009483</v>
+        <v>1.052690477395174</v>
       </c>
       <c r="D12">
-        <v>0.5684047404059243</v>
+        <v>0.02715112187317459</v>
       </c>
       <c r="E12">
-        <v>0.439259898147391</v>
+        <v>0.347842960692347</v>
       </c>
       <c r="F12">
-        <v>11.04228878835067</v>
+        <v>3.407002743566693</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -852,33 +918,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8761847208994951</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.49134666657983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.731622905203253</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.692966291679411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.231049813416973</v>
+        <v>4.372375462787375</v>
       </c>
       <c r="C13">
-        <v>0.6937113548916329</v>
+        <v>1.046606884330686</v>
       </c>
       <c r="D13">
-        <v>0.5652330773795313</v>
+        <v>0.02711588190520686</v>
       </c>
       <c r="E13">
-        <v>0.4364810048197683</v>
+        <v>0.3456761490820028</v>
       </c>
       <c r="F13">
-        <v>10.9773460020931</v>
+        <v>3.387506110850637</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -893,33 +965,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8703464709199054</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.481565636797086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.721000003638764</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.677713939190397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.161544954985516</v>
+        <v>4.287160924605132</v>
       </c>
       <c r="C14">
-        <v>0.6783407347191144</v>
+        <v>1.02682654173833</v>
       </c>
       <c r="D14">
-        <v>0.5549444820673841</v>
+        <v>0.02700568994033148</v>
       </c>
       <c r="E14">
-        <v>0.4274686462250656</v>
+        <v>0.3386477511981525</v>
       </c>
       <c r="F14">
-        <v>10.76662548888709</v>
+        <v>3.324253932336404</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -934,33 +1012,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8514193082202155</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.449850549470312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.686486287403582</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.628243398182249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.119268961627483</v>
+        <v>4.235159311345228</v>
       </c>
       <c r="C15">
-        <v>0.6690021632430785</v>
+        <v>1.014755071442096</v>
       </c>
       <c r="D15">
-        <v>0.5486834045781848</v>
+        <v>0.02694174836788576</v>
       </c>
       <c r="E15">
-        <v>0.4219858366762921</v>
+        <v>0.3343711951059802</v>
       </c>
       <c r="F15">
-        <v>10.63835430286719</v>
+        <v>3.285758578979937</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -975,33 +1059,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8399099916150732</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.430560824280931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.66544299226905</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.598144696714655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881233983478751</v>
+        <v>3.939948078080135</v>
       </c>
       <c r="C16">
-        <v>0.6165672176651356</v>
+        <v>0.946213117757992</v>
       </c>
       <c r="D16">
-        <v>0.5133852363572942</v>
+        <v>0.02662653572102869</v>
       </c>
       <c r="E16">
-        <v>0.3910994601665507</v>
+        <v>0.3102739772995875</v>
       </c>
       <c r="F16">
-        <v>9.914681726494223</v>
+        <v>3.068743517092997</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1016,33 +1106,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7751488779074123</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.321961016908375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.546247729703225</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.428598046551642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.738647689013078</v>
+        <v>3.761132329807708</v>
       </c>
       <c r="C17">
-        <v>0.585273608607082</v>
+        <v>0.9046816949855838</v>
       </c>
       <c r="D17">
-        <v>0.492202621808417</v>
+        <v>0.02647552415435328</v>
       </c>
       <c r="E17">
-        <v>0.3725854516654223</v>
+        <v>0.2958287814795284</v>
       </c>
       <c r="F17">
-        <v>9.480007969677672</v>
+        <v>2.938583676082061</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1057,33 +1153,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7363894485092075</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.256916496215197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.474270860067961</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.327020634533554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.657776662875278</v>
+        <v>3.659046910065342</v>
       </c>
       <c r="C18">
-        <v>0.5675620735302971</v>
+        <v>0.8809653115138474</v>
       </c>
       <c r="D18">
-        <v>0.4801748489931015</v>
+        <v>0.02640299379978117</v>
       </c>
       <c r="E18">
-        <v>0.3620805668899152</v>
+        <v>0.2876338445808528</v>
       </c>
       <c r="F18">
-        <v>9.233073889727734</v>
+        <v>2.86472572479903</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1098,33 +1200,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7144169497863473</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.22002754317063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.433255385712584</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.269420478601589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.630580155131952</v>
+        <v>3.624607067501984</v>
       </c>
       <c r="C19">
-        <v>0.5616117367755749</v>
+        <v>0.8729631248996839</v>
       </c>
       <c r="D19">
-        <v>0.476127686404368</v>
+        <v>0.02638078648613629</v>
       </c>
       <c r="E19">
-        <v>0.3585471332977832</v>
+        <v>0.2848777395064914</v>
       </c>
       <c r="F19">
-        <v>9.149965810270345</v>
+        <v>2.839883869347119</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,33 +1247,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7070294341665004</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.207622364060725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.419430809021577</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.250053370021334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.753705530123796</v>
+        <v>3.780086790616679</v>
       </c>
       <c r="C20">
-        <v>0.588574378356526</v>
+        <v>0.9090846461925537</v>
       </c>
       <c r="D20">
-        <v>0.4944410382850606</v>
+        <v>0.0264900900495455</v>
       </c>
       <c r="E20">
-        <v>0.3745410759440446</v>
+        <v>0.2973545167590643</v>
       </c>
       <c r="F20">
-        <v>9.525954021584369</v>
+        <v>2.952333384412498</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1180,33 +1294,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7404814885201887</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.2637852573271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.481892400727546</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.337746875962026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.181897337346243</v>
+        <v>4.312149428894429</v>
       </c>
       <c r="C21">
-        <v>0.6828393157614698</v>
+        <v>1.032627101921577</v>
       </c>
       <c r="D21">
-        <v>0.557957834224112</v>
+        <v>0.0270373071804606</v>
       </c>
       <c r="E21">
-        <v>0.4301078708560411</v>
+        <v>0.3407061461307421</v>
       </c>
       <c r="F21">
-        <v>10.82835003318559</v>
+        <v>3.34278030914237</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1221,33 +1341,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8569609064711798</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.459137171646034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.696603274533473</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.642731251392178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.474728177117754</v>
+        <v>4.668390472250735</v>
       </c>
       <c r="C22">
-        <v>0.7477726982347974</v>
+        <v>1.115312357878793</v>
       </c>
       <c r="D22">
-        <v>0.6012556741992228</v>
+        <v>0.02755058316947867</v>
       </c>
       <c r="E22">
-        <v>0.4680601401216791</v>
+        <v>0.3702871984053431</v>
       </c>
       <c r="F22">
-        <v>11.71448465455717</v>
+        <v>3.608842624380657</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1262,33 +1388,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9367535015253452</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.592770139847872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.841183431857658</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.850967932093766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.317096602170921</v>
+        <v>4.477389528779952</v>
       </c>
       <c r="C23">
-        <v>0.7127702748293245</v>
+        <v>1.070981716107497</v>
       </c>
       <c r="D23">
-        <v>0.5779617293992487</v>
+        <v>0.02726089014187494</v>
       </c>
       <c r="E23">
-        <v>0.447635207475912</v>
+        <v>0.3543723902445706</v>
       </c>
       <c r="F23">
-        <v>11.23793081054407</v>
+        <v>3.465742713654294</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1303,33 +1435,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.893786929449071</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.520831212143861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.763584549477628</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.738929472595444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.746894471223584</v>
+        <v>3.771515259856528</v>
       </c>
       <c r="C24">
-        <v>0.5870812373266006</v>
+        <v>0.9070935761249928</v>
       </c>
       <c r="D24">
-        <v>0.4934285858226417</v>
+        <v>0.02648346059556772</v>
       </c>
       <c r="E24">
-        <v>0.3736565086782946</v>
+        <v>0.2966643923164725</v>
       </c>
       <c r="F24">
-        <v>9.50517265159462</v>
+        <v>2.946114131750875</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1344,33 +1482,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7386305174008854</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.260678327657132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.478445574104285</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.332895072926874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.174448264786633</v>
+        <v>3.038652790549463</v>
       </c>
       <c r="C25">
-        <v>0.4622399192220428</v>
+        <v>0.7366980247583399</v>
       </c>
       <c r="D25">
-        <v>0.4080621642408175</v>
+        <v>0.02618188340250782</v>
       </c>
       <c r="E25">
-        <v>0.2992323173610458</v>
+        <v>0.2386636105146067</v>
       </c>
       <c r="F25">
-        <v>7.751078558115381</v>
+        <v>2.423303263104273</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5832511823898656</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9995907726806337</v>
+        <v>1.185207396264829</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.925798669749696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.516079964216829</v>
+        <v>0.9379025183555143</v>
       </c>
       <c r="C2">
-        <v>0.6149010174913201</v>
+        <v>0.1244759443760799</v>
       </c>
       <c r="D2">
-        <v>0.02630357872804368</v>
+        <v>0.06327112923120382</v>
       </c>
       <c r="E2">
-        <v>0.1985817754499237</v>
+        <v>0.05594926826207924</v>
       </c>
       <c r="F2">
-        <v>2.06232236898741</v>
+        <v>1.092731693104547</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08625391353865375</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7720140840595491</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1280937187996045</v>
       </c>
       <c r="M2">
-        <v>0.9779506186288316</v>
+        <v>0.1922055741330446</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.645708059248463</v>
+        <v>2.969339911824363</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.169448543877877</v>
+        <v>0.8185179245616894</v>
       </c>
       <c r="C3">
-        <v>0.5338962376024199</v>
+        <v>0.1229724251725841</v>
       </c>
       <c r="D3">
-        <v>0.02655325148296583</v>
+        <v>0.05727186896296388</v>
       </c>
       <c r="E3">
-        <v>0.1726346202321736</v>
+        <v>0.05547041848619294</v>
       </c>
       <c r="F3">
-        <v>1.829128697346349</v>
+        <v>1.083411970428855</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08832577851847034</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6711351084973671</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1178081833357112</v>
       </c>
       <c r="M3">
-        <v>0.8413799147417436</v>
+        <v>0.169530961433825</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.465291661201277</v>
+        <v>2.969449538761353</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959446283990616</v>
+        <v>0.7455586037456783</v>
       </c>
       <c r="C4">
-        <v>0.4847073305058416</v>
+        <v>0.1220650918014456</v>
       </c>
       <c r="D4">
-        <v>0.026775921164365</v>
+        <v>0.0536259829593746</v>
       </c>
       <c r="E4">
-        <v>0.1571847633728751</v>
+        <v>0.0552266672792161</v>
       </c>
       <c r="F4">
-        <v>1.690595811045327</v>
+        <v>1.079226601957153</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08966712646414976</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6092977052922919</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1115905377807351</v>
       </c>
       <c r="M4">
-        <v>0.7590170188689456</v>
+        <v>0.1557059040093591</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.358340999877299</v>
+        <v>2.973900100233323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.874463927173309</v>
+        <v>0.7159017325311652</v>
       </c>
       <c r="C5">
-        <v>0.4647725586208935</v>
+        <v>0.1216991706912083</v>
       </c>
       <c r="D5">
-        <v>0.02688237045861541</v>
+        <v>0.05214918376195499</v>
       </c>
       <c r="E5">
-        <v>0.150994253095881</v>
+        <v>0.05513971560931807</v>
       </c>
       <c r="F5">
-        <v>1.635178203705124</v>
+        <v>1.077894828524137</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09023095422956295</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.584115337455529</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1090800784240145</v>
       </c>
       <c r="M5">
-        <v>0.725772094349864</v>
+        <v>0.1500941813844818</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.315611070088195</v>
+        <v>2.976780186441601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.860385418454285</v>
+        <v>0.7109814106615602</v>
       </c>
       <c r="C6">
-        <v>0.4614682932428877</v>
+        <v>0.1216386364212347</v>
       </c>
       <c r="D6">
-        <v>0.02690094778419549</v>
+        <v>0.05190448623115884</v>
       </c>
       <c r="E6">
-        <v>0.149972259686983</v>
+        <v>0.05512601761707003</v>
       </c>
       <c r="F6">
-        <v>1.626035026028006</v>
+        <v>1.077695905322614</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09032561199581934</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.579934591836178</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1086645882879864</v>
       </c>
       <c r="M6">
-        <v>0.7202694894115211</v>
+        <v>0.1491636275602879</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.308564340233616</v>
+        <v>2.9773218198481</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958297918296523</v>
+        <v>0.7451583535565476</v>
       </c>
       <c r="C7">
-        <v>0.4844380721686719</v>
+        <v>0.1220601415741953</v>
       </c>
       <c r="D7">
-        <v>0.02677729533083451</v>
+        <v>0.05360603087790849</v>
       </c>
       <c r="E7">
-        <v>0.1571008688012938</v>
+        <v>0.05522544483209302</v>
       </c>
       <c r="F7">
-        <v>1.689844404186076</v>
+        <v>1.079207144029944</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08967466096941124</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.608958030204434</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1115565882369438</v>
       </c>
       <c r="M7">
-        <v>0.7585674470488826</v>
+        <v>0.1556301358897692</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.357761410676105</v>
+        <v>2.973934670088084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395900194503838</v>
+        <v>0.8966601945372759</v>
       </c>
       <c r="C8">
-        <v>0.5868391513122617</v>
+        <v>0.1239541458678488</v>
       </c>
       <c r="D8">
-        <v>0.02637416604247278</v>
+        <v>0.06119442291056032</v>
       </c>
       <c r="E8">
-        <v>0.1895252479258929</v>
+        <v>0.05577356768411157</v>
       </c>
       <c r="F8">
-        <v>1.98086817607826</v>
+        <v>1.089191424805961</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08695381223468246</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7372041275678498</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1245261854690938</v>
       </c>
       <c r="M8">
-        <v>0.9305155721719061</v>
+        <v>0.1843657221549826</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.582637885618922</v>
+        <v>2.968445906354873</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.28241765986138</v>
+        <v>1.197051874997101</v>
       </c>
       <c r="C9">
-        <v>0.793416552604981</v>
+        <v>0.1278018566535408</v>
       </c>
       <c r="D9">
-        <v>0.02622302905113472</v>
+        <v>0.07640112117209696</v>
       </c>
       <c r="E9">
-        <v>0.2577316804217418</v>
+        <v>0.05725973768752191</v>
       </c>
       <c r="F9">
-        <v>2.595177410012809</v>
+        <v>1.121570752921663</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08217616889235835</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9899499604855748</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.150797676190443</v>
       </c>
       <c r="M9">
-        <v>1.282418942063956</v>
+        <v>0.2416029290345385</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.059458106711048</v>
+        <v>2.99416479504788</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.960461169470022</v>
+        <v>1.420626292987407</v>
       </c>
       <c r="C10">
-        <v>0.9509766767504857</v>
+        <v>0.1307225680064406</v>
       </c>
       <c r="D10">
-        <v>0.02664579599190375</v>
+        <v>0.08781282211528207</v>
       </c>
       <c r="E10">
-        <v>0.311938406026826</v>
+        <v>0.05862082381792533</v>
       </c>
       <c r="F10">
-        <v>3.083738106318464</v>
+        <v>1.154055302862346</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07901884094834877</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.177076947816516</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1707047229902443</v>
       </c>
       <c r="M10">
-        <v>1.554515420763082</v>
+        <v>0.2843696452296314</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.440305406516345</v>
+        <v>3.037811176611939</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.277205240597539</v>
+        <v>1.523168008422942</v>
       </c>
       <c r="C11">
-        <v>1.024515505354486</v>
+        <v>0.1320746995186326</v>
       </c>
       <c r="D11">
-        <v>0.02699325434721089</v>
+        <v>0.09306595921187721</v>
       </c>
       <c r="E11">
-        <v>0.3378282734424971</v>
+        <v>0.0593028277379144</v>
       </c>
       <c r="F11">
-        <v>3.316877896447693</v>
+        <v>1.170933000752584</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07766210137524077</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.262677868070455</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1799148995169588</v>
       </c>
       <c r="M11">
-        <v>1.682456473752495</v>
+        <v>0.3040220321551672</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.622475693768905</v>
+        <v>3.063637334637974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.398584823171461</v>
+        <v>1.562136305636358</v>
       </c>
       <c r="C12">
-        <v>1.052690477395174</v>
+        <v>0.1325903677318365</v>
       </c>
       <c r="D12">
-        <v>0.02715112187317459</v>
+        <v>0.09506492580014481</v>
       </c>
       <c r="E12">
-        <v>0.347842960692347</v>
+        <v>0.05957050482239445</v>
       </c>
       <c r="F12">
-        <v>3.407002743566693</v>
+        <v>1.177645027250477</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07716005254394531</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.29517517284026</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.183426719073708</v>
       </c>
       <c r="M12">
-        <v>1.731622905203253</v>
+        <v>0.3114959250686695</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.692966291679411</v>
+        <v>3.074329012461249</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.372375462787375</v>
+        <v>1.553737354077327</v>
       </c>
       <c r="C13">
-        <v>1.046606884330686</v>
+        <v>0.132479142700106</v>
       </c>
       <c r="D13">
-        <v>0.02711588190520686</v>
+        <v>0.09463396678305003</v>
       </c>
       <c r="E13">
-        <v>0.3456761490820028</v>
+        <v>0.0595124306236432</v>
       </c>
       <c r="F13">
-        <v>3.387506110850637</v>
+        <v>1.176184891275497</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07726765186732187</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.28817241740802</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.182669280758823</v>
       </c>
       <c r="M13">
-        <v>1.721000003638764</v>
+        <v>0.3098848078713061</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.677713939190397</v>
+        <v>3.071984925447936</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.287160924605132</v>
+        <v>1.526371082699882</v>
       </c>
       <c r="C14">
-        <v>1.02682654173833</v>
+        <v>0.1321170491730825</v>
       </c>
       <c r="D14">
-        <v>0.02700568994033148</v>
+        <v>0.09323021576388868</v>
       </c>
       <c r="E14">
-        <v>0.3386477511981525</v>
+        <v>0.05932465869361714</v>
       </c>
       <c r="F14">
-        <v>3.324253932336404</v>
+        <v>1.171478661538785</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0776205609753422</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.265349713794961</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1802033239879677</v>
       </c>
       <c r="M14">
-        <v>1.686486287403582</v>
+        <v>0.3046362520721644</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.628243398182249</v>
+        <v>3.064498352088293</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.235159311345228</v>
+        <v>1.50962696588428</v>
       </c>
       <c r="C15">
-        <v>1.014755071442096</v>
+        <v>0.131895739532581</v>
       </c>
       <c r="D15">
-        <v>0.02694174836788576</v>
+        <v>0.09237166843952593</v>
       </c>
       <c r="E15">
-        <v>0.3343711951059802</v>
+        <v>0.05921088105456995</v>
       </c>
       <c r="F15">
-        <v>3.285758578979937</v>
+        <v>1.168638318146094</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07783826280227402</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.251381262350151</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1786960556479684</v>
       </c>
       <c r="M15">
-        <v>1.66544299226905</v>
+        <v>0.3014256318566666</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.598144696714655</v>
+        <v>3.060033005005607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.939948078080135</v>
+        <v>1.413943267403596</v>
       </c>
       <c r="C16">
-        <v>0.946213117757992</v>
+        <v>0.1306346980045205</v>
       </c>
       <c r="D16">
-        <v>0.02662653572102869</v>
+        <v>0.08747083135343559</v>
       </c>
       <c r="E16">
-        <v>0.3102739772995875</v>
+        <v>0.05857754974545948</v>
       </c>
       <c r="F16">
-        <v>3.068743517092997</v>
+        <v>1.152996146333635</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07910913127410879</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.171493447971983</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1701060842919091</v>
       </c>
       <c r="M16">
-        <v>1.546247729703225</v>
+        <v>0.2830895891341783</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.428598046551642</v>
+        <v>3.036247998775167</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.761132329807708</v>
+        <v>1.355470872444869</v>
       </c>
       <c r="C17">
-        <v>0.9046816949855838</v>
+        <v>0.1298672884517629</v>
       </c>
       <c r="D17">
-        <v>0.02647552415435328</v>
+        <v>0.08448074385093207</v>
       </c>
       <c r="E17">
-        <v>0.2958287814795284</v>
+        <v>0.05820537951585081</v>
       </c>
       <c r="F17">
-        <v>2.938583676082061</v>
+        <v>1.143951092116353</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07990933505529441</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.122616162932047</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1648772816223527</v>
       </c>
       <c r="M17">
-        <v>1.474270860067961</v>
+        <v>0.2718940750054273</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.327020634533554</v>
+        <v>3.023222764972871</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.659046910065342</v>
+        <v>1.321916710411841</v>
       </c>
       <c r="C18">
-        <v>0.8809653115138474</v>
+        <v>0.1294280878820757</v>
       </c>
       <c r="D18">
-        <v>0.02640299379978117</v>
+        <v>0.08276669854172525</v>
       </c>
       <c r="E18">
-        <v>0.2876338445808528</v>
+        <v>0.05799720755577198</v>
       </c>
       <c r="F18">
-        <v>2.86472572479903</v>
+        <v>1.138945109874484</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08037706036735592</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.09454716144765</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1618842186851452</v>
       </c>
       <c r="M18">
-        <v>1.433255385712584</v>
+        <v>0.2654730829992431</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.269420478601589</v>
+        <v>3.016289636446487</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.624607067501984</v>
+        <v>1.310568659565661</v>
       </c>
       <c r="C19">
-        <v>0.8729631248996839</v>
+        <v>0.12927975099457</v>
       </c>
       <c r="D19">
-        <v>0.02638078648613629</v>
+        <v>0.08218731993342487</v>
       </c>
       <c r="E19">
-        <v>0.2848777395064914</v>
+        <v>0.05792772459427908</v>
       </c>
       <c r="F19">
-        <v>2.839883869347119</v>
+        <v>1.137283366383159</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08053669872596281</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.085050623049284</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1608732366324901</v>
       </c>
       <c r="M19">
-        <v>1.419430809021577</v>
+        <v>0.2633020967363855</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.250053370021334</v>
+        <v>3.014036582814413</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.780086790616679</v>
+        <v>1.361687202014309</v>
       </c>
       <c r="C20">
-        <v>0.9090846461925537</v>
+        <v>0.1299487516627309</v>
       </c>
       <c r="D20">
-        <v>0.0264900900495455</v>
+        <v>0.08479844044764917</v>
       </c>
       <c r="E20">
-        <v>0.2973545167590643</v>
+        <v>0.05824438534458487</v>
       </c>
       <c r="F20">
-        <v>2.952333384412498</v>
+        <v>1.14489348517975</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07982337698363651</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.127814592014005</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1654323920700804</v>
       </c>
       <c r="M20">
-        <v>1.481892400727546</v>
+        <v>0.2730839303041748</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.337746875962026</v>
+        <v>3.02455113216854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.312149428894429</v>
+        <v>1.534405328201132</v>
       </c>
       <c r="C21">
-        <v>1.032627101921577</v>
+        <v>0.1322233036291252</v>
       </c>
       <c r="D21">
-        <v>0.0270373071804606</v>
+        <v>0.09364226094643868</v>
       </c>
       <c r="E21">
-        <v>0.3407061461307421</v>
+        <v>0.05937955313004473</v>
       </c>
       <c r="F21">
-        <v>3.34278030914237</v>
+        <v>1.172852132529059</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07751658263564387</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.272050953229012</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1809269644691014</v>
       </c>
       <c r="M21">
-        <v>1.696603274533473</v>
+        <v>0.3061769832178882</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.642731251392178</v>
+        <v>3.066672149665209</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.668390472250735</v>
+        <v>1.64809996292712</v>
       </c>
       <c r="C22">
-        <v>1.115312357878793</v>
+        <v>0.1337312447197903</v>
       </c>
       <c r="D22">
-        <v>0.02755058316947867</v>
+        <v>0.09947927011835134</v>
       </c>
       <c r="E22">
-        <v>0.3702871984053431</v>
+        <v>0.06017653497901598</v>
       </c>
       <c r="F22">
-        <v>3.608842624380657</v>
+        <v>1.193004304441899</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07607741051475614</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.36680333267671</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1911951786717125</v>
       </c>
       <c r="M22">
-        <v>1.841183431857658</v>
+        <v>0.3279933270458386</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.850967932093766</v>
+        <v>3.099543173250083</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.477389528779952</v>
+        <v>1.587338399190259</v>
       </c>
       <c r="C23">
-        <v>1.070981716107497</v>
+        <v>0.1329243760558114</v>
       </c>
       <c r="D23">
-        <v>0.02726089014187494</v>
+        <v>0.09635844275391037</v>
       </c>
       <c r="E23">
-        <v>0.3543723902445706</v>
+        <v>0.05974599828553906</v>
       </c>
       <c r="F23">
-        <v>3.465742713654294</v>
+        <v>1.182070181536943</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07683916276092084</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.316182995853978</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1857012090183687</v>
       </c>
       <c r="M23">
-        <v>1.763584549477628</v>
+        <v>0.3163310821059255</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.738929472595444</v>
+        <v>3.08149188455846</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.771515259856528</v>
+        <v>1.358876606385053</v>
       </c>
       <c r="C24">
-        <v>0.9070935761249928</v>
+        <v>0.1299119159561073</v>
       </c>
       <c r="D24">
-        <v>0.02648346059556772</v>
+        <v>0.08465479431659162</v>
       </c>
       <c r="E24">
-        <v>0.2966643923164725</v>
+        <v>0.05822673279193147</v>
       </c>
       <c r="F24">
-        <v>2.946114131750875</v>
+        <v>1.144466825978753</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07986221473499988</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.125464286063277</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1651813861474309</v>
       </c>
       <c r="M24">
-        <v>1.478445574104285</v>
+        <v>0.2725459488398982</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.332895072926874</v>
+        <v>3.023948851854726</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.038652790549463</v>
+        <v>1.115348922646149</v>
       </c>
       <c r="C25">
-        <v>0.7366980247583399</v>
+        <v>0.1267454373520707</v>
       </c>
       <c r="D25">
-        <v>0.02618188340250782</v>
+        <v>0.07224837140394413</v>
       </c>
       <c r="E25">
-        <v>0.2386636105146067</v>
+        <v>0.05681181589387663</v>
       </c>
       <c r="F25">
-        <v>2.423303263104273</v>
+        <v>1.111352158034549</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08340765752845769</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9213747035649931</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1435914215309992</v>
       </c>
       <c r="M25">
-        <v>1.185207396264829</v>
+        <v>0.2260065291363951</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.925798669749696</v>
+        <v>2.983051846868022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9379025183555143</v>
+        <v>0.7117080123049107</v>
       </c>
       <c r="C2">
-        <v>0.1244759443760799</v>
+        <v>0.1600642082812556</v>
       </c>
       <c r="D2">
-        <v>0.06327112923120382</v>
+        <v>0.1049859070985804</v>
       </c>
       <c r="E2">
-        <v>0.05594926826207924</v>
+        <v>0.1422608133583871</v>
       </c>
       <c r="F2">
-        <v>1.092731693104547</v>
+        <v>2.307636691385639</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08625391353865375</v>
+        <v>0.213893841753837</v>
       </c>
       <c r="K2">
-        <v>0.7720140840595491</v>
+        <v>0.3364172470826645</v>
       </c>
       <c r="L2">
-        <v>0.1280937187996045</v>
+        <v>0.2358674811643695</v>
       </c>
       <c r="M2">
-        <v>0.1922055741330446</v>
+        <v>0.2029199323890225</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.969339911824363</v>
+        <v>6.28772141877289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8185179245616894</v>
+        <v>0.680430168657324</v>
       </c>
       <c r="C3">
-        <v>0.1229724251725841</v>
+        <v>0.1594244198751653</v>
       </c>
       <c r="D3">
-        <v>0.05727186896296388</v>
+        <v>0.1037915478909213</v>
       </c>
       <c r="E3">
-        <v>0.05547041848619294</v>
+        <v>0.1427241575656346</v>
       </c>
       <c r="F3">
-        <v>1.083411970428855</v>
+        <v>2.317594672145361</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08832577851847034</v>
+        <v>0.2151499831879065</v>
       </c>
       <c r="K3">
-        <v>0.6711351084973671</v>
+        <v>0.307317597068149</v>
       </c>
       <c r="L3">
-        <v>0.1178081833357112</v>
+        <v>0.2341666889501184</v>
       </c>
       <c r="M3">
-        <v>0.169530961433825</v>
+        <v>0.1974650344182436</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.969449538761353</v>
+        <v>6.321571816392634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7455586037456783</v>
+        <v>0.6614864130268074</v>
       </c>
       <c r="C4">
-        <v>0.1220650918014456</v>
+        <v>0.159033878832993</v>
       </c>
       <c r="D4">
-        <v>0.0536259829593746</v>
+        <v>0.1030930743046383</v>
       </c>
       <c r="E4">
-        <v>0.0552266672792161</v>
+        <v>0.1430468559831102</v>
       </c>
       <c r="F4">
-        <v>1.079226601957153</v>
+        <v>2.324613667606371</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08966712646414976</v>
+        <v>0.2159684523110137</v>
       </c>
       <c r="K4">
-        <v>0.6092977052922919</v>
+        <v>0.2895201197245143</v>
       </c>
       <c r="L4">
-        <v>0.1115905377807351</v>
+        <v>0.2332019661925244</v>
       </c>
       <c r="M4">
-        <v>0.1557059040093591</v>
+        <v>0.1941925677695799</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.973900100233323</v>
+        <v>6.344846736306749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7159017325311652</v>
+        <v>0.6538329321449794</v>
       </c>
       <c r="C5">
-        <v>0.1216991706912083</v>
+        <v>0.1588753248073331</v>
       </c>
       <c r="D5">
-        <v>0.05214918376195499</v>
+        <v>0.1028172593191954</v>
       </c>
       <c r="E5">
-        <v>0.05513971560931807</v>
+        <v>0.1431879886222767</v>
       </c>
       <c r="F5">
-        <v>1.077894828524137</v>
+        <v>2.327701745878962</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09023095422956295</v>
+        <v>0.2163138712992367</v>
       </c>
       <c r="K5">
-        <v>0.584115337455529</v>
+        <v>0.282285527889627</v>
       </c>
       <c r="L5">
-        <v>0.1090800784240145</v>
+        <v>0.2328289283031992</v>
       </c>
       <c r="M5">
-        <v>0.1500941813844818</v>
+        <v>0.192878473115865</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.976780186441601</v>
+        <v>6.354958314533178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7109814106615602</v>
+        <v>0.652566097621019</v>
       </c>
       <c r="C6">
-        <v>0.1216386364212347</v>
+        <v>0.158849033489691</v>
       </c>
       <c r="D6">
-        <v>0.05190448623115884</v>
+        <v>0.1027719945762158</v>
       </c>
       <c r="E6">
-        <v>0.05512601761707003</v>
+        <v>0.1432120059459514</v>
       </c>
       <c r="F6">
-        <v>1.077695905322614</v>
+        <v>2.328228284332774</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09032561199581934</v>
+        <v>0.2163719463158422</v>
       </c>
       <c r="K6">
-        <v>0.579934591836178</v>
+        <v>0.2810853318373177</v>
       </c>
       <c r="L6">
-        <v>0.1086645882879864</v>
+        <v>0.2327682018288826</v>
       </c>
       <c r="M6">
-        <v>0.1491636275602879</v>
+        <v>0.1926614481192424</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.9773218198481</v>
+        <v>6.356675211878326</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7451583535565476</v>
+        <v>0.6613829264105107</v>
       </c>
       <c r="C7">
-        <v>0.1220601415741953</v>
+        <v>0.1590317380860569</v>
       </c>
       <c r="D7">
-        <v>0.05360603087790849</v>
+        <v>0.1030893187930388</v>
       </c>
       <c r="E7">
-        <v>0.05522544483209302</v>
+        <v>0.1430487203221205</v>
       </c>
       <c r="F7">
-        <v>1.079207144029944</v>
+        <v>2.324654391874304</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08967466096941124</v>
+        <v>0.2159730626003604</v>
       </c>
       <c r="K7">
-        <v>0.608958030204434</v>
+        <v>0.2894224778882659</v>
       </c>
       <c r="L7">
-        <v>0.1115565882369438</v>
+        <v>0.2331968537971605</v>
       </c>
       <c r="M7">
-        <v>0.1556301358897692</v>
+        <v>0.1941747664497484</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.973934670088084</v>
+        <v>6.344980565708994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8966601945372759</v>
+        <v>0.7008696152831533</v>
       </c>
       <c r="C8">
-        <v>0.1239541458678488</v>
+        <v>0.1598431443660786</v>
       </c>
       <c r="D8">
-        <v>0.06119442291056032</v>
+        <v>0.1045668851639476</v>
       </c>
       <c r="E8">
-        <v>0.05577356768411157</v>
+        <v>0.1424126596263875</v>
       </c>
       <c r="F8">
-        <v>1.089191424805961</v>
+        <v>2.31088258294001</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08695381223468246</v>
+        <v>0.2143171758988842</v>
       </c>
       <c r="K8">
-        <v>0.7372041275678498</v>
+        <v>0.3263694656214682</v>
       </c>
       <c r="L8">
-        <v>0.1245261854690938</v>
+        <v>0.2352645836105012</v>
       </c>
       <c r="M8">
-        <v>0.1843657221549826</v>
+        <v>0.2010232090928312</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.968445906354873</v>
+        <v>6.298876441222035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197051874997101</v>
+        <v>0.7803502673314142</v>
       </c>
       <c r="C9">
-        <v>0.1278018566535408</v>
+        <v>0.1614517753212112</v>
       </c>
       <c r="D9">
-        <v>0.07640112117209696</v>
+        <v>0.1077390394662174</v>
       </c>
       <c r="E9">
-        <v>0.05725973768752191</v>
+        <v>0.1414674535086036</v>
       </c>
       <c r="F9">
-        <v>1.121570752921663</v>
+        <v>2.29104387585371</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08217616889235835</v>
+        <v>0.2114435662720506</v>
       </c>
       <c r="K9">
-        <v>0.9899499604855748</v>
+        <v>0.3993596803011883</v>
       </c>
       <c r="L9">
-        <v>0.150797676190443</v>
+        <v>0.2399473750426822</v>
       </c>
       <c r="M9">
-        <v>0.2416029290345385</v>
+        <v>0.2150578027648891</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.99416479504788</v>
+        <v>6.228205355032486</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.420626292987407</v>
+        <v>0.8399681022684717</v>
       </c>
       <c r="C10">
-        <v>0.1307225680064406</v>
+        <v>0.1626434518755886</v>
       </c>
       <c r="D10">
-        <v>0.08781282211528207</v>
+        <v>0.1102346882391956</v>
       </c>
       <c r="E10">
-        <v>0.05862082381792533</v>
+        <v>0.1409558612950885</v>
       </c>
       <c r="F10">
-        <v>1.154055302862346</v>
+        <v>2.280824541167505</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07901884094834877</v>
+        <v>0.2095588293747035</v>
       </c>
       <c r="K10">
-        <v>1.177076947816516</v>
+        <v>0.4532961433035894</v>
       </c>
       <c r="L10">
-        <v>0.1707047229902443</v>
+        <v>0.243766694545954</v>
       </c>
       <c r="M10">
-        <v>0.2843696452296314</v>
+        <v>0.2257321894802686</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.037811176611939</v>
+        <v>6.188288291082756</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.523168008422942</v>
+        <v>0.8673506231747581</v>
       </c>
       <c r="C11">
-        <v>0.1320746995186326</v>
+        <v>0.1631875420343789</v>
       </c>
       <c r="D11">
-        <v>0.09306595921187721</v>
+        <v>0.1114053863086184</v>
       </c>
       <c r="E11">
-        <v>0.0593028277379144</v>
+        <v>0.1407625532655388</v>
       </c>
       <c r="F11">
-        <v>1.170933000752584</v>
+        <v>2.277118650276378</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07766210137524077</v>
+        <v>0.2087503334748515</v>
       </c>
       <c r="K11">
-        <v>1.262677868070455</v>
+        <v>0.4778974195051262</v>
       </c>
       <c r="L11">
-        <v>0.1799148995169588</v>
+        <v>0.2455856696066974</v>
       </c>
       <c r="M11">
-        <v>0.3040220321551672</v>
+        <v>0.2306660087951826</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.063637334637974</v>
+        <v>6.172729985771383</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.562136305636358</v>
+        <v>0.8777568094151036</v>
       </c>
       <c r="C12">
-        <v>0.1325903677318365</v>
+        <v>0.1633938447698782</v>
       </c>
       <c r="D12">
-        <v>0.09506492580014481</v>
+        <v>0.1118537450049644</v>
       </c>
       <c r="E12">
-        <v>0.05957050482239445</v>
+        <v>0.1406949975765013</v>
       </c>
       <c r="F12">
-        <v>1.177645027250477</v>
+        <v>2.275850674554775</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07716005254394531</v>
+        <v>0.2084511867428773</v>
       </c>
       <c r="K12">
-        <v>1.29517517284026</v>
+        <v>0.4872222785722045</v>
       </c>
       <c r="L12">
-        <v>0.183426719073708</v>
+        <v>0.2462861162184424</v>
       </c>
       <c r="M12">
-        <v>0.3114959250686695</v>
+        <v>0.2325454139542416</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.074329012461249</v>
+        <v>6.167211865722436</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.553737354077327</v>
+        <v>0.8755140151274929</v>
       </c>
       <c r="C13">
-        <v>0.132479142700106</v>
+        <v>0.1633494021790156</v>
       </c>
       <c r="D13">
-        <v>0.09463396678305003</v>
+        <v>0.1117569595739241</v>
       </c>
       <c r="E13">
-        <v>0.0595124306236432</v>
+        <v>0.1407092961569241</v>
       </c>
       <c r="F13">
-        <v>1.176184891275497</v>
+        <v>2.276117739063366</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07726765186732187</v>
+        <v>0.2085153016840575</v>
       </c>
       <c r="K13">
-        <v>1.28817241740802</v>
+        <v>0.485213615930121</v>
       </c>
       <c r="L13">
-        <v>0.182669280758823</v>
+        <v>0.2461347461754571</v>
       </c>
       <c r="M13">
-        <v>0.3098848078713061</v>
+        <v>0.2321401600885622</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.071984925447936</v>
+        <v>6.168383688126056</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.526371082699882</v>
+        <v>0.8682060082526846</v>
       </c>
       <c r="C14">
-        <v>0.1321170491730825</v>
+        <v>0.1632045094284038</v>
       </c>
       <c r="D14">
-        <v>0.09323021576388868</v>
+        <v>0.1114421723214818</v>
       </c>
       <c r="E14">
-        <v>0.05932465869361714</v>
+        <v>0.1407568823946335</v>
       </c>
       <c r="F14">
-        <v>1.171478661538785</v>
+        <v>2.27701162154672</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0776205609753422</v>
+        <v>0.2087255820298992</v>
       </c>
       <c r="K14">
-        <v>1.265349713794961</v>
+        <v>0.4786644059785488</v>
       </c>
       <c r="L14">
-        <v>0.1802033239879677</v>
+        <v>0.2456430629762352</v>
       </c>
       <c r="M14">
-        <v>0.3046362520721644</v>
+        <v>0.2308204074305067</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.064498352088293</v>
+        <v>6.172268524218879</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.50962696588428</v>
+        <v>0.8637344443854147</v>
       </c>
       <c r="C15">
-        <v>0.131895739532581</v>
+        <v>0.1631157927350628</v>
       </c>
       <c r="D15">
-        <v>0.09237166843952593</v>
+        <v>0.1112500109565886</v>
       </c>
       <c r="E15">
-        <v>0.05921088105456995</v>
+        <v>0.1407867649351573</v>
       </c>
       <c r="F15">
-        <v>1.168638318146094</v>
+        <v>2.277576772090285</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07783826280227402</v>
+        <v>0.2088552976611755</v>
       </c>
       <c r="K15">
-        <v>1.251381262350151</v>
+        <v>0.4746539686142057</v>
       </c>
       <c r="L15">
-        <v>0.1786960556479684</v>
+        <v>0.2453434061671587</v>
       </c>
       <c r="M15">
-        <v>0.3014256318566666</v>
+        <v>0.2300134589564138</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.060033005005607</v>
+        <v>6.174696722946464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.413943267403596</v>
+        <v>0.83818380671363</v>
       </c>
       <c r="C16">
-        <v>0.1306346980045205</v>
+        <v>0.1626079327620289</v>
       </c>
       <c r="D16">
-        <v>0.08747083135343559</v>
+        <v>0.1101588885683356</v>
       </c>
       <c r="E16">
-        <v>0.05857754974545948</v>
+        <v>0.1409692857030684</v>
       </c>
       <c r="F16">
-        <v>1.152996146333635</v>
+        <v>2.281085684610886</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07910913127410879</v>
+        <v>0.2096126487256083</v>
       </c>
       <c r="K16">
-        <v>1.171493447971983</v>
+        <v>0.4516896633125782</v>
       </c>
       <c r="L16">
-        <v>0.1701060842919091</v>
+        <v>0.2436494538185414</v>
       </c>
       <c r="M16">
-        <v>0.2830895891341783</v>
+        <v>0.2254113101461215</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.036247998775167</v>
+        <v>6.18935734829455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.355470872444869</v>
+        <v>0.822575966303134</v>
       </c>
       <c r="C17">
-        <v>0.1298672884517629</v>
+        <v>0.1622968736169241</v>
       </c>
       <c r="D17">
-        <v>0.08448074385093207</v>
+        <v>0.1094985539795985</v>
       </c>
       <c r="E17">
-        <v>0.05820537951585081</v>
+        <v>0.1410913361947692</v>
       </c>
       <c r="F17">
-        <v>1.143951092116353</v>
+        <v>2.283479634752723</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07990933505529441</v>
+        <v>0.2100897672085829</v>
       </c>
       <c r="K17">
-        <v>1.122616162932047</v>
+        <v>0.4376181755848734</v>
       </c>
       <c r="L17">
-        <v>0.1648772816223527</v>
+        <v>0.2426310937847376</v>
       </c>
       <c r="M17">
-        <v>0.2718940750054273</v>
+        <v>0.2226079158844456</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.023222764972871</v>
+        <v>6.199016827186227</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.321916710411841</v>
+        <v>0.8136234561353888</v>
       </c>
       <c r="C18">
-        <v>0.1294280878820757</v>
+        <v>0.1621181490831773</v>
       </c>
       <c r="D18">
-        <v>0.08276669854172525</v>
+        <v>0.1091220835035571</v>
       </c>
       <c r="E18">
-        <v>0.05799720755577198</v>
+        <v>0.1411652479356107</v>
       </c>
       <c r="F18">
-        <v>1.138945109874484</v>
+        <v>2.284945338755364</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08037706036735592</v>
+        <v>0.2103687949291242</v>
       </c>
       <c r="K18">
-        <v>1.09454716144765</v>
+        <v>0.4295308050772917</v>
       </c>
       <c r="L18">
-        <v>0.1618842186851452</v>
+        <v>0.2420530408016504</v>
       </c>
       <c r="M18">
-        <v>0.2654730829992431</v>
+        <v>0.2210028265078066</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.016289636446487</v>
+        <v>6.204817469531605</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.310568659565661</v>
+        <v>0.8105965537377244</v>
       </c>
       <c r="C19">
-        <v>0.12927975099457</v>
+        <v>0.1620576689646782</v>
       </c>
       <c r="D19">
-        <v>0.08218731993342487</v>
+        <v>0.1089951917011405</v>
       </c>
       <c r="E19">
-        <v>0.05792772459427908</v>
+        <v>0.1411909113221554</v>
       </c>
       <c r="F19">
-        <v>1.137283366383159</v>
+        <v>2.285456853760948</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08053669872596281</v>
+        <v>0.2104640597670091</v>
       </c>
       <c r="K19">
-        <v>1.085050623049284</v>
+        <v>0.4267936366061349</v>
       </c>
       <c r="L19">
-        <v>0.1608732366324901</v>
+        <v>0.2418586438032833</v>
       </c>
       <c r="M19">
-        <v>0.2633020967363855</v>
+        <v>0.2204606372563447</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.014036582814413</v>
+        <v>6.206823519164914</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.361687202014309</v>
+        <v>0.8242348953202736</v>
       </c>
       <c r="C20">
-        <v>0.1299487516627309</v>
+        <v>0.1623299670249878</v>
       </c>
       <c r="D20">
-        <v>0.08479844044764917</v>
+        <v>0.1095685027835103</v>
       </c>
       <c r="E20">
-        <v>0.05824438534458487</v>
+        <v>0.141077959744921</v>
       </c>
       <c r="F20">
-        <v>1.14489348517975</v>
+        <v>2.283215609253915</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07982337698363651</v>
+        <v>0.2100385009788148</v>
       </c>
       <c r="K20">
-        <v>1.127814592014005</v>
+        <v>0.4391154738114551</v>
       </c>
       <c r="L20">
-        <v>0.1654323920700804</v>
+        <v>0.242738705643319</v>
       </c>
       <c r="M20">
-        <v>0.2730839303041748</v>
+        <v>0.2229055824229533</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.02455113216854</v>
+        <v>6.197963229949409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.534405328201132</v>
+        <v>0.8703515476067594</v>
       </c>
       <c r="C21">
-        <v>0.1322233036291252</v>
+        <v>0.1632470608255971</v>
       </c>
       <c r="D21">
-        <v>0.09364226094643868</v>
+        <v>0.1115344965765601</v>
       </c>
       <c r="E21">
-        <v>0.05937955313004473</v>
+        <v>0.140742752113896</v>
       </c>
       <c r="F21">
-        <v>1.172852132529059</v>
+        <v>2.276745394651599</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07751658263564387</v>
+        <v>0.2086636273867093</v>
       </c>
       <c r="K21">
-        <v>1.272050953229012</v>
+        <v>0.4805878304240423</v>
       </c>
       <c r="L21">
-        <v>0.1809269644691014</v>
+        <v>0.2457871670237566</v>
       </c>
       <c r="M21">
-        <v>0.3061769832178882</v>
+        <v>0.2312077513200137</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.066672149665209</v>
+        <v>6.171117321160864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.64809996292712</v>
+        <v>0.9007069181457439</v>
       </c>
       <c r="C22">
-        <v>0.1337312447197903</v>
+        <v>0.1638479859152611</v>
       </c>
       <c r="D22">
-        <v>0.09947927011835134</v>
+        <v>0.112848744507815</v>
       </c>
       <c r="E22">
-        <v>0.06017653497901598</v>
+        <v>0.1405565726510023</v>
       </c>
       <c r="F22">
-        <v>1.193004304441899</v>
+        <v>2.273305638846779</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07607741051475614</v>
+        <v>0.207805938593518</v>
       </c>
       <c r="K22">
-        <v>1.36680333267671</v>
+        <v>0.5077439969854822</v>
       </c>
       <c r="L22">
-        <v>0.1911951786717125</v>
+        <v>0.2478473210973675</v>
       </c>
       <c r="M22">
-        <v>0.3279933270458386</v>
+        <v>0.2366981868353051</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.099543173250083</v>
+        <v>6.155748653429129</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.587338399190259</v>
+        <v>0.8844861892951883</v>
       </c>
       <c r="C23">
-        <v>0.1329243760558114</v>
+        <v>0.1635271250502441</v>
       </c>
       <c r="D23">
-        <v>0.09635844275391037</v>
+        <v>0.1121446365598615</v>
       </c>
       <c r="E23">
-        <v>0.05974599828553906</v>
+        <v>0.1406529373274505</v>
       </c>
       <c r="F23">
-        <v>1.182070181536943</v>
+        <v>2.275069391904708</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07683916276092084</v>
+        <v>0.2082599687742821</v>
       </c>
       <c r="K23">
-        <v>1.316182995853978</v>
+        <v>0.4932456852502582</v>
       </c>
       <c r="L23">
-        <v>0.1857012090183687</v>
+        <v>0.2467416020528006</v>
       </c>
       <c r="M23">
-        <v>0.3163310821059255</v>
+        <v>0.2337619834413545</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.08149188455846</v>
+        <v>6.163752175038553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.358876606385053</v>
+        <v>0.8234848291547507</v>
       </c>
       <c r="C24">
-        <v>0.1299119159561073</v>
+        <v>0.1623150051594422</v>
       </c>
       <c r="D24">
-        <v>0.08465479431659162</v>
+        <v>0.10953686906754</v>
       </c>
       <c r="E24">
-        <v>0.05822673279193147</v>
+        <v>0.1410839955763521</v>
       </c>
       <c r="F24">
-        <v>1.144466825978753</v>
+        <v>2.283334696718683</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07986221473499988</v>
+        <v>0.2100616637188306</v>
       </c>
       <c r="K24">
-        <v>1.125464286063277</v>
+        <v>0.4384385374116846</v>
       </c>
       <c r="L24">
-        <v>0.1651813861474309</v>
+        <v>0.2426900312169025</v>
       </c>
       <c r="M24">
-        <v>0.2725459488398982</v>
+        <v>0.2227709867522094</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.023948851854726</v>
+        <v>6.198438790960978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115348922646149</v>
+        <v>0.7586320231601462</v>
       </c>
       <c r="C25">
-        <v>0.1267454373520707</v>
+        <v>0.1610148149816695</v>
       </c>
       <c r="D25">
-        <v>0.07224837140394413</v>
+        <v>0.1068517296984197</v>
       </c>
       <c r="E25">
-        <v>0.05681181589387663</v>
+        <v>0.1416909511064759</v>
       </c>
       <c r="F25">
-        <v>1.111352158034549</v>
+        <v>2.295644810000844</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08340765752845769</v>
+        <v>0.2121810882802269</v>
       </c>
       <c r="K25">
-        <v>0.9213747035649931</v>
+        <v>0.3795581356592379</v>
       </c>
       <c r="L25">
-        <v>0.1435914215309992</v>
+        <v>0.2386137366506631</v>
       </c>
       <c r="M25">
-        <v>0.2260065291363951</v>
+        <v>0.2111968977021874</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.983051846868022</v>
+        <v>6.245213508256541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7117080123049107</v>
+        <v>0.937902518355628</v>
       </c>
       <c r="C2">
-        <v>0.1600642082812556</v>
+        <v>0.124475944376087</v>
       </c>
       <c r="D2">
-        <v>0.1049859070985804</v>
+        <v>0.06327112923149514</v>
       </c>
       <c r="E2">
-        <v>0.1422608133583871</v>
+        <v>0.05594926826209523</v>
       </c>
       <c r="F2">
-        <v>2.307636691385639</v>
+        <v>1.092731693104533</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.213893841753837</v>
+        <v>0.08625391353862</v>
       </c>
       <c r="K2">
-        <v>0.3364172470826645</v>
+        <v>0.7720140840595207</v>
       </c>
       <c r="L2">
-        <v>0.2358674811643695</v>
+        <v>0.1280937187996329</v>
       </c>
       <c r="M2">
-        <v>0.2029199323890225</v>
+        <v>0.1922055741330482</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.28772141877289</v>
+        <v>2.96933991182425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.680430168657324</v>
+        <v>0.8185179245619736</v>
       </c>
       <c r="C3">
-        <v>0.1594244198751653</v>
+        <v>0.1229724251724988</v>
       </c>
       <c r="D3">
-        <v>0.1037915478909213</v>
+        <v>0.05727186896290704</v>
       </c>
       <c r="E3">
-        <v>0.1427241575656346</v>
+        <v>0.05547041848621781</v>
       </c>
       <c r="F3">
-        <v>2.317594672145361</v>
+        <v>1.083411970428863</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2151499831879065</v>
+        <v>0.08832577851842949</v>
       </c>
       <c r="K3">
-        <v>0.307317597068149</v>
+        <v>0.6711351084973387</v>
       </c>
       <c r="L3">
-        <v>0.2341666889501184</v>
+        <v>0.1178081833356543</v>
       </c>
       <c r="M3">
-        <v>0.1974650344182436</v>
+        <v>0.169530961433825</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.321571816392634</v>
+        <v>2.96944953876141</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6614864130268074</v>
+        <v>0.7455586037457351</v>
       </c>
       <c r="C4">
-        <v>0.159033878832993</v>
+        <v>0.1220650918015238</v>
       </c>
       <c r="D4">
-        <v>0.1030930743046383</v>
+        <v>0.05362598295941012</v>
       </c>
       <c r="E4">
-        <v>0.1430468559831102</v>
+        <v>0.05522666727919656</v>
       </c>
       <c r="F4">
-        <v>2.324613667606371</v>
+        <v>1.079226601957153</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2159684523110137</v>
+        <v>0.08966712646417818</v>
       </c>
       <c r="K4">
-        <v>0.2895201197245143</v>
+        <v>0.6092977052923061</v>
       </c>
       <c r="L4">
-        <v>0.2332019661925244</v>
+        <v>0.1115905377807707</v>
       </c>
       <c r="M4">
-        <v>0.1941925677695799</v>
+        <v>0.155705904009352</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.344846736306749</v>
+        <v>2.973900100233294</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6538329321449794</v>
+        <v>0.7159017325311936</v>
       </c>
       <c r="C5">
-        <v>0.1588753248073331</v>
+        <v>0.1216991706908885</v>
       </c>
       <c r="D5">
-        <v>0.1028172593191954</v>
+        <v>0.05214918376221789</v>
       </c>
       <c r="E5">
-        <v>0.1431879886222767</v>
+        <v>0.05513971560931097</v>
       </c>
       <c r="F5">
-        <v>2.327701745878962</v>
+        <v>1.077894828524165</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2163138712992367</v>
+        <v>0.09023095422960381</v>
       </c>
       <c r="K5">
-        <v>0.282285527889627</v>
+        <v>0.5841153374554722</v>
       </c>
       <c r="L5">
-        <v>0.2328289283031992</v>
+        <v>0.1090800784239789</v>
       </c>
       <c r="M5">
-        <v>0.192878473115865</v>
+        <v>0.1500941813844676</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.354958314533178</v>
+        <v>2.976780186441658</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.652566097621019</v>
+        <v>0.7109814106615318</v>
       </c>
       <c r="C6">
-        <v>0.158849033489691</v>
+        <v>0.1216386364214763</v>
       </c>
       <c r="D6">
-        <v>0.1027719945762158</v>
+        <v>0.05190448623093147</v>
       </c>
       <c r="E6">
-        <v>0.1432120059459514</v>
+        <v>0.05512601761706826</v>
       </c>
       <c r="F6">
-        <v>2.328228284332774</v>
+        <v>1.077695905322614</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2163719463158422</v>
+        <v>0.09032561199575539</v>
       </c>
       <c r="K6">
-        <v>0.2810853318373177</v>
+        <v>0.5799345918362349</v>
       </c>
       <c r="L6">
-        <v>0.2327682018288826</v>
+        <v>0.1086645882879793</v>
       </c>
       <c r="M6">
-        <v>0.1926614481192424</v>
+        <v>0.1491636275603021</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.356675211878326</v>
+        <v>2.977321819848214</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6613829264105107</v>
+        <v>0.7451583535564339</v>
       </c>
       <c r="C7">
-        <v>0.1590317380860569</v>
+        <v>0.1220601415739608</v>
       </c>
       <c r="D7">
-        <v>0.1030893187930388</v>
+        <v>0.05360603087779481</v>
       </c>
       <c r="E7">
-        <v>0.1430487203221205</v>
+        <v>0.05522544483209657</v>
       </c>
       <c r="F7">
-        <v>2.324654391874304</v>
+        <v>1.079207144029908</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2159730626003604</v>
+        <v>0.08967466096954269</v>
       </c>
       <c r="K7">
-        <v>0.2894224778882659</v>
+        <v>0.6089580302044482</v>
       </c>
       <c r="L7">
-        <v>0.2331968537971605</v>
+        <v>0.111556588237022</v>
       </c>
       <c r="M7">
-        <v>0.1941747664497484</v>
+        <v>0.155630135889762</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.344980565708994</v>
+        <v>2.973934670088084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7008696152831533</v>
+        <v>0.8966601945373327</v>
       </c>
       <c r="C8">
-        <v>0.1598431443660786</v>
+        <v>0.123954145868197</v>
       </c>
       <c r="D8">
-        <v>0.1045668851639476</v>
+        <v>0.06119442291060295</v>
       </c>
       <c r="E8">
-        <v>0.1424126596263875</v>
+        <v>0.055773567684124</v>
       </c>
       <c r="F8">
-        <v>2.31088258294001</v>
+        <v>1.089191424805961</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2143171758988842</v>
+        <v>0.08695381223470378</v>
       </c>
       <c r="K8">
-        <v>0.3263694656214682</v>
+        <v>0.7372041275678214</v>
       </c>
       <c r="L8">
-        <v>0.2352645836105012</v>
+        <v>0.1245261854690725</v>
       </c>
       <c r="M8">
-        <v>0.2010232090928312</v>
+        <v>0.1843657221549719</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.298876441222035</v>
+        <v>2.968445906354816</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7803502673314142</v>
+        <v>1.197051874997243</v>
       </c>
       <c r="C9">
-        <v>0.1614517753212112</v>
+        <v>0.1278018566541164</v>
       </c>
       <c r="D9">
-        <v>0.1077390394662174</v>
+        <v>0.07640112117215381</v>
       </c>
       <c r="E9">
-        <v>0.1414674535086036</v>
+        <v>0.05725973768752191</v>
       </c>
       <c r="F9">
-        <v>2.29104387585371</v>
+        <v>1.121570752921663</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2114435662720506</v>
+        <v>0.0821761688923548</v>
       </c>
       <c r="K9">
-        <v>0.3993596803011883</v>
+        <v>0.9899499604856317</v>
       </c>
       <c r="L9">
-        <v>0.2399473750426822</v>
+        <v>0.1507976761904359</v>
       </c>
       <c r="M9">
-        <v>0.2150578027648891</v>
+        <v>0.2416029290345385</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.228205355032486</v>
+        <v>2.994164795047965</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8399681022684717</v>
+        <v>1.420626292987436</v>
       </c>
       <c r="C10">
-        <v>0.1626434518755886</v>
+        <v>0.1307225680065613</v>
       </c>
       <c r="D10">
-        <v>0.1102346882391956</v>
+        <v>0.08781282211540287</v>
       </c>
       <c r="E10">
-        <v>0.1409558612950885</v>
+        <v>0.05862082381792533</v>
       </c>
       <c r="F10">
-        <v>2.280824541167505</v>
+        <v>1.154055302862332</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2095588293747035</v>
+        <v>0.07901884094841805</v>
       </c>
       <c r="K10">
-        <v>0.4532961433035894</v>
+        <v>1.177076947816545</v>
       </c>
       <c r="L10">
-        <v>0.243766694545954</v>
+        <v>0.1707047229901519</v>
       </c>
       <c r="M10">
-        <v>0.2257321894802686</v>
+        <v>0.2843696452296527</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.188288291082756</v>
+        <v>3.037811176611967</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8673506231747581</v>
+        <v>1.523168008422999</v>
       </c>
       <c r="C11">
-        <v>0.1631875420343789</v>
+        <v>0.1320746995189808</v>
       </c>
       <c r="D11">
-        <v>0.1114053863086184</v>
+        <v>0.09306595921201932</v>
       </c>
       <c r="E11">
-        <v>0.1407625532655388</v>
+        <v>0.05930282773789841</v>
       </c>
       <c r="F11">
-        <v>2.277118650276378</v>
+        <v>1.170933000752569</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2087503334748515</v>
+        <v>0.07766210137535978</v>
       </c>
       <c r="K11">
-        <v>0.4778974195051262</v>
+        <v>1.262677868070369</v>
       </c>
       <c r="L11">
-        <v>0.2455856696066974</v>
+        <v>0.179914899516973</v>
       </c>
       <c r="M11">
-        <v>0.2306660087951826</v>
+        <v>0.3040220321551743</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.172729985771383</v>
+        <v>3.063637334637917</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8777568094151036</v>
+        <v>1.562136305636358</v>
       </c>
       <c r="C12">
-        <v>0.1633938447698782</v>
+        <v>0.1325903677319431</v>
       </c>
       <c r="D12">
-        <v>0.1118537450049644</v>
+        <v>0.09506492580001691</v>
       </c>
       <c r="E12">
-        <v>0.1406949975765013</v>
+        <v>0.05957050482239268</v>
       </c>
       <c r="F12">
-        <v>2.275850674554775</v>
+        <v>1.177645027250477</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2084511867428773</v>
+        <v>0.07716005254398262</v>
       </c>
       <c r="K12">
-        <v>0.4872222785722045</v>
+        <v>1.295175172840317</v>
       </c>
       <c r="L12">
-        <v>0.2462861162184424</v>
+        <v>0.1834267190736085</v>
       </c>
       <c r="M12">
-        <v>0.2325454139542416</v>
+        <v>0.3114959250686695</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.167211865722436</v>
+        <v>3.07432901246122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8755140151274929</v>
+        <v>1.553737354077356</v>
       </c>
       <c r="C13">
-        <v>0.1633494021790156</v>
+        <v>0.1324791427003404</v>
       </c>
       <c r="D13">
-        <v>0.1117569595739241</v>
+        <v>0.09463396678302871</v>
       </c>
       <c r="E13">
-        <v>0.1407092961569241</v>
+        <v>0.05951243062362188</v>
       </c>
       <c r="F13">
-        <v>2.276117739063366</v>
+        <v>1.176184891275526</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2085153016840575</v>
+        <v>0.0772676518674249</v>
       </c>
       <c r="K13">
-        <v>0.485213615930121</v>
+        <v>1.288172417407992</v>
       </c>
       <c r="L13">
-        <v>0.2461347461754571</v>
+        <v>0.1826692807588088</v>
       </c>
       <c r="M13">
-        <v>0.2321401600885622</v>
+        <v>0.3098848078712919</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.168383688126056</v>
+        <v>3.071984925448021</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8682060082526846</v>
+        <v>1.52637108269974</v>
       </c>
       <c r="C14">
-        <v>0.1632045094284038</v>
+        <v>0.1321170491728552</v>
       </c>
       <c r="D14">
-        <v>0.1114421723214818</v>
+        <v>0.0932302157640521</v>
       </c>
       <c r="E14">
-        <v>0.1407568823946335</v>
+        <v>0.05932465869361714</v>
       </c>
       <c r="F14">
-        <v>2.27701162154672</v>
+        <v>1.171478661538771</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2087255820298992</v>
+        <v>0.07762056097530134</v>
       </c>
       <c r="K14">
-        <v>0.4786644059785488</v>
+        <v>1.265349713794961</v>
       </c>
       <c r="L14">
-        <v>0.2456430629762352</v>
+        <v>0.1802033239879819</v>
       </c>
       <c r="M14">
-        <v>0.2308204074305067</v>
+        <v>0.3046362520721786</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.172268524218879</v>
+        <v>3.064498352088265</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8637344443854147</v>
+        <v>1.509626965884308</v>
       </c>
       <c r="C15">
-        <v>0.1631157927350628</v>
+        <v>0.1318957395324745</v>
       </c>
       <c r="D15">
-        <v>0.1112500109565886</v>
+        <v>0.09237166843951883</v>
       </c>
       <c r="E15">
-        <v>0.1407867649351573</v>
+        <v>0.05921088105457883</v>
       </c>
       <c r="F15">
-        <v>2.277576772090285</v>
+        <v>1.168638318146094</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2088552976611755</v>
+        <v>0.07783826280225981</v>
       </c>
       <c r="K15">
-        <v>0.4746539686142057</v>
+        <v>1.251381262350293</v>
       </c>
       <c r="L15">
-        <v>0.2453434061671587</v>
+        <v>0.1786960556479542</v>
       </c>
       <c r="M15">
-        <v>0.2300134589564138</v>
+        <v>0.3014256318566666</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.174696722946464</v>
+        <v>3.060033005005693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.83818380671363</v>
+        <v>1.41394326740371</v>
       </c>
       <c r="C16">
-        <v>0.1626079327620289</v>
+        <v>0.1306346980048971</v>
       </c>
       <c r="D16">
-        <v>0.1101588885683356</v>
+        <v>0.08747083135337874</v>
       </c>
       <c r="E16">
-        <v>0.1409692857030684</v>
+        <v>0.05857754974547724</v>
       </c>
       <c r="F16">
-        <v>2.281085684610886</v>
+        <v>1.152996146333663</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2096126487256083</v>
+        <v>0.07910913127407326</v>
       </c>
       <c r="K16">
-        <v>0.4516896633125782</v>
+        <v>1.17149344797204</v>
       </c>
       <c r="L16">
-        <v>0.2436494538185414</v>
+        <v>0.1701060842920228</v>
       </c>
       <c r="M16">
-        <v>0.2254113101461215</v>
+        <v>0.2830895891341711</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.18935734829455</v>
+        <v>3.036247998775252</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.822575966303134</v>
+        <v>1.355470872444869</v>
       </c>
       <c r="C17">
-        <v>0.1622968736169241</v>
+        <v>0.1298672884519974</v>
       </c>
       <c r="D17">
-        <v>0.1094985539795985</v>
+        <v>0.08448074385104576</v>
       </c>
       <c r="E17">
-        <v>0.1410913361947692</v>
+        <v>0.05820537951583837</v>
       </c>
       <c r="F17">
-        <v>2.283479634752723</v>
+        <v>1.143951092116367</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2100897672085829</v>
+        <v>0.07990933505525355</v>
       </c>
       <c r="K17">
-        <v>0.4376181755848734</v>
+        <v>1.122616162932047</v>
       </c>
       <c r="L17">
-        <v>0.2426310937847376</v>
+        <v>0.1648772816224096</v>
       </c>
       <c r="M17">
-        <v>0.2226079158844456</v>
+        <v>0.2718940750054344</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.199016827186227</v>
+        <v>3.0232227649729</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8136234561353888</v>
+        <v>1.321916710411813</v>
       </c>
       <c r="C18">
-        <v>0.1621181490831773</v>
+        <v>0.1294280878820757</v>
       </c>
       <c r="D18">
-        <v>0.1091220835035571</v>
+        <v>0.08276669854171104</v>
       </c>
       <c r="E18">
-        <v>0.1411652479356107</v>
+        <v>0.05799720755576665</v>
       </c>
       <c r="F18">
-        <v>2.284945338755364</v>
+        <v>1.138945109874498</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2103687949291242</v>
+        <v>0.08037706036727243</v>
       </c>
       <c r="K18">
-        <v>0.4295308050772917</v>
+        <v>1.094547161447622</v>
       </c>
       <c r="L18">
-        <v>0.2420530408016504</v>
+        <v>0.1618842186851168</v>
       </c>
       <c r="M18">
-        <v>0.2210028265078066</v>
+        <v>0.2654730829992324</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.204817469531605</v>
+        <v>3.016289636446515</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8105965537377244</v>
+        <v>1.310568659565746</v>
       </c>
       <c r="C19">
-        <v>0.1620576689646782</v>
+        <v>0.1292797509950674</v>
       </c>
       <c r="D19">
-        <v>0.1089951917011405</v>
+        <v>0.08218731993331119</v>
       </c>
       <c r="E19">
-        <v>0.1411909113221554</v>
+        <v>0.05792772459429507</v>
       </c>
       <c r="F19">
-        <v>2.285456853760948</v>
+        <v>1.137283366383144</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2104640597670091</v>
+        <v>0.08053669872601965</v>
       </c>
       <c r="K19">
-        <v>0.4267936366061349</v>
+        <v>1.085050623049312</v>
       </c>
       <c r="L19">
-        <v>0.2418586438032833</v>
+        <v>0.160873236632483</v>
       </c>
       <c r="M19">
-        <v>0.2204606372563447</v>
+        <v>0.2633020967363819</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.206823519164914</v>
+        <v>3.014036582814356</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8242348953202736</v>
+        <v>1.361687202014082</v>
       </c>
       <c r="C20">
-        <v>0.1623299670249878</v>
+        <v>0.1299487516628446</v>
       </c>
       <c r="D20">
-        <v>0.1095685027835103</v>
+        <v>0.08479844044757812</v>
       </c>
       <c r="E20">
-        <v>0.141077959744921</v>
+        <v>0.05824438534458309</v>
       </c>
       <c r="F20">
-        <v>2.283215609253915</v>
+        <v>1.14489348517975</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2100385009788148</v>
+        <v>0.0798233769836596</v>
       </c>
       <c r="K20">
-        <v>0.4391154738114551</v>
+        <v>1.127814592013976</v>
       </c>
       <c r="L20">
-        <v>0.242738705643319</v>
+        <v>0.1654323920699596</v>
       </c>
       <c r="M20">
-        <v>0.2229055824229533</v>
+        <v>0.2730839303041535</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.197963229949409</v>
+        <v>3.02455113216854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8703515476067594</v>
+        <v>1.534405328201103</v>
       </c>
       <c r="C21">
-        <v>0.1632470608255971</v>
+        <v>0.1322233036287699</v>
       </c>
       <c r="D21">
-        <v>0.1115344965765601</v>
+        <v>0.09364226094644579</v>
       </c>
       <c r="E21">
-        <v>0.140742752113896</v>
+        <v>0.0593795531300465</v>
       </c>
       <c r="F21">
-        <v>2.276745394651599</v>
+        <v>1.172852132529059</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2086636273867093</v>
+        <v>0.07751658263564387</v>
       </c>
       <c r="K21">
-        <v>0.4805878304240423</v>
+        <v>1.272050953229012</v>
       </c>
       <c r="L21">
-        <v>0.2457871670237566</v>
+        <v>0.1809269644690374</v>
       </c>
       <c r="M21">
-        <v>0.2312077513200137</v>
+        <v>0.3061769832178882</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.171117321160864</v>
+        <v>3.066672149665152</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9007069181457439</v>
+        <v>1.648099962927176</v>
       </c>
       <c r="C22">
-        <v>0.1638479859152611</v>
+        <v>0.1337312447200247</v>
       </c>
       <c r="D22">
-        <v>0.112848744507815</v>
+        <v>0.09947927011805291</v>
       </c>
       <c r="E22">
-        <v>0.1405565726510023</v>
+        <v>0.06017653497901598</v>
       </c>
       <c r="F22">
-        <v>2.273305638846779</v>
+        <v>1.193004304441914</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.207805938593518</v>
+        <v>0.07607741051466732</v>
       </c>
       <c r="K22">
-        <v>0.5077439969854822</v>
+        <v>1.366803332676682</v>
       </c>
       <c r="L22">
-        <v>0.2478473210973675</v>
+        <v>0.1911951786716983</v>
       </c>
       <c r="M22">
-        <v>0.2366981868353051</v>
+        <v>0.3279933270458457</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.155748653429129</v>
+        <v>3.099543173250026</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8844861892951883</v>
+        <v>1.587338399190486</v>
       </c>
       <c r="C23">
-        <v>0.1635271250502441</v>
+        <v>0.1329243760558043</v>
       </c>
       <c r="D23">
-        <v>0.1121446365598615</v>
+        <v>0.09635844275398142</v>
       </c>
       <c r="E23">
-        <v>0.1406529373274505</v>
+        <v>0.05974599828555327</v>
       </c>
       <c r="F23">
-        <v>2.275069391904708</v>
+        <v>1.182070181536929</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2082599687742821</v>
+        <v>0.07683916276106295</v>
       </c>
       <c r="K23">
-        <v>0.4932456852502582</v>
+        <v>1.316182995854007</v>
       </c>
       <c r="L23">
-        <v>0.2467416020528006</v>
+        <v>0.1857012090184043</v>
       </c>
       <c r="M23">
-        <v>0.2337619834413545</v>
+        <v>0.3163310821059255</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.163752175038553</v>
+        <v>3.081491884558488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8234848291547507</v>
+        <v>1.35887660638511</v>
       </c>
       <c r="C24">
-        <v>0.1623150051594422</v>
+        <v>0.1299119159564626</v>
       </c>
       <c r="D24">
-        <v>0.10953686906754</v>
+        <v>0.08465479431647083</v>
       </c>
       <c r="E24">
-        <v>0.1410839955763521</v>
+        <v>0.05822673279194746</v>
       </c>
       <c r="F24">
-        <v>2.283334696718683</v>
+        <v>1.144466825978753</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2100616637188306</v>
+        <v>0.07986221473512067</v>
       </c>
       <c r="K24">
-        <v>0.4384385374116846</v>
+        <v>1.125464286063277</v>
       </c>
       <c r="L24">
-        <v>0.2426900312169025</v>
+        <v>0.1651813861474452</v>
       </c>
       <c r="M24">
-        <v>0.2227709867522094</v>
+        <v>0.2725459488399196</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.198438790960978</v>
+        <v>3.023948851854755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7586320231601462</v>
+        <v>1.115348922646092</v>
       </c>
       <c r="C25">
-        <v>0.1610148149816695</v>
+        <v>0.1267454373520707</v>
       </c>
       <c r="D25">
-        <v>0.1068517296984197</v>
+        <v>0.07224837140383755</v>
       </c>
       <c r="E25">
-        <v>0.1416909511064759</v>
+        <v>0.05681181589387663</v>
       </c>
       <c r="F25">
-        <v>2.295644810000844</v>
+        <v>1.111352158034535</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2121810882802269</v>
+        <v>0.08340765752850743</v>
       </c>
       <c r="K25">
-        <v>0.3795581356592379</v>
+        <v>0.9213747035650215</v>
       </c>
       <c r="L25">
-        <v>0.2386137366506631</v>
+        <v>0.1435914215308784</v>
       </c>
       <c r="M25">
-        <v>0.2111968977021874</v>
+        <v>0.2260065291363915</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.245213508256541</v>
+        <v>2.983051846868022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.937902518355628</v>
+        <v>2.384758608310392</v>
       </c>
       <c r="C2">
-        <v>0.124475944376087</v>
+        <v>0.7297686364557308</v>
       </c>
       <c r="D2">
-        <v>0.06327112923149514</v>
+        <v>0.05560311639526105</v>
       </c>
       <c r="E2">
-        <v>0.05594926826209523</v>
+        <v>0.2552575941817068</v>
       </c>
       <c r="F2">
-        <v>1.092731693104533</v>
+        <v>0.4509790707299572</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.001374618063390454</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003206021134027459</v>
       </c>
       <c r="J2">
-        <v>0.08625391353862</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.7720140840595207</v>
+        <v>0.1916885332313711</v>
       </c>
       <c r="L2">
-        <v>0.1280937187996329</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1922055741330482</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.96933991182425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9570523565319391</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.249025666573829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8185179245619736</v>
+        <v>2.082010208675683</v>
       </c>
       <c r="C3">
-        <v>0.1229724251724988</v>
+        <v>0.6454293668556375</v>
       </c>
       <c r="D3">
-        <v>0.05727186896290704</v>
+        <v>0.04955713081384516</v>
       </c>
       <c r="E3">
-        <v>0.05547041848621781</v>
+        <v>0.2283215725919234</v>
       </c>
       <c r="F3">
-        <v>1.083411970428863</v>
+        <v>0.4172785937073655</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.0005319371556600228</v>
+      </c>
+      <c r="I3">
+        <v>0.001931296100541324</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08832577851842949</v>
-      </c>
       <c r="K3">
-        <v>0.6711351084973387</v>
+        <v>0.1970373947686461</v>
       </c>
       <c r="L3">
-        <v>0.1178081833356543</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.169530961433825</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.96944953876141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8333063292428093</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.182186105642728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7455586037457351</v>
+        <v>1.895716408549021</v>
       </c>
       <c r="C4">
-        <v>0.1220650918015238</v>
+        <v>0.5939533947696418</v>
       </c>
       <c r="D4">
-        <v>0.05362598295941012</v>
+        <v>0.04585622667198663</v>
       </c>
       <c r="E4">
-        <v>0.05522666727919656</v>
+        <v>0.2117494640985811</v>
       </c>
       <c r="F4">
-        <v>1.079226601957153</v>
+        <v>0.3971243017440429</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.0002006158110097189</v>
+      </c>
+      <c r="I4">
+        <v>0.00134120629806489</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.08966712646417818</v>
-      </c>
       <c r="K4">
-        <v>0.6092977052923061</v>
+        <v>0.2006483639377805</v>
       </c>
       <c r="L4">
-        <v>0.1115905377807707</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.155705904009352</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.973900100233294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7574130394668614</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.142774591451712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7159017325311936</v>
+        <v>1.819561379909715</v>
       </c>
       <c r="C5">
-        <v>0.1216991706908885</v>
+        <v>0.5740480608975815</v>
       </c>
       <c r="D5">
-        <v>0.05214918376221789</v>
+        <v>0.04442132175612556</v>
       </c>
       <c r="E5">
-        <v>0.05513971560931097</v>
+        <v>0.2049102533662186</v>
       </c>
       <c r="F5">
-        <v>1.077894828524165</v>
+        <v>0.3884490276232029</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.000109255477506176</v>
+      </c>
+      <c r="I5">
+        <v>0.001205419455773793</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.09023095422960381</v>
-      </c>
       <c r="K5">
-        <v>0.5841153374554722</v>
+        <v>0.2018539244553956</v>
       </c>
       <c r="L5">
-        <v>0.1090800784239789</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1500941813844676</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.976780186441658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.72668262920525</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.125169465470009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7109814106615318</v>
+        <v>1.806753688133512</v>
       </c>
       <c r="C6">
-        <v>0.1216386364214763</v>
+        <v>0.5719760994113301</v>
       </c>
       <c r="D6">
-        <v>0.05190448623093147</v>
+        <v>0.04427007628537183</v>
       </c>
       <c r="E6">
-        <v>0.05512601761706826</v>
+        <v>0.2036826696491296</v>
       </c>
       <c r="F6">
-        <v>1.077695905322614</v>
+        <v>0.386297401405912</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>9.644925621810074E-05</v>
+      </c>
+      <c r="I6">
+        <v>0.001265705413200813</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.09032561199575539</v>
-      </c>
       <c r="K6">
-        <v>0.5799345918362349</v>
+        <v>0.2016391743649955</v>
       </c>
       <c r="L6">
-        <v>0.1086645882879793</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1491636275603021</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.977321819848214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7218047393638827</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.119914841201719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7451583535564339</v>
+        <v>1.894264758019489</v>
       </c>
       <c r="C7">
-        <v>0.1220601415739608</v>
+        <v>0.5970513094323167</v>
       </c>
       <c r="D7">
-        <v>0.05360603087779481</v>
+        <v>0.04607491382215301</v>
       </c>
       <c r="E7">
-        <v>0.05522544483209657</v>
+        <v>0.2114083434125149</v>
       </c>
       <c r="F7">
-        <v>1.079207144029908</v>
+        <v>0.3950432485102695</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.0001983965113041553</v>
+      </c>
+      <c r="I7">
+        <v>0.00154305283691869</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.08967466096954269</v>
-      </c>
       <c r="K7">
-        <v>0.6089580302044482</v>
+        <v>0.1995199594543919</v>
       </c>
       <c r="L7">
-        <v>0.111556588237022</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.155630135889762</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.973934670088084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7576125325046945</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.136105082829388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8966601945373327</v>
+        <v>2.279880623525685</v>
       </c>
       <c r="C8">
-        <v>0.123954145868197</v>
+        <v>0.705121174680869</v>
       </c>
       <c r="D8">
-        <v>0.06119442291060295</v>
+        <v>0.05383461126520928</v>
       </c>
       <c r="E8">
-        <v>0.055773567684124</v>
+        <v>0.2456459104435424</v>
       </c>
       <c r="F8">
-        <v>1.089191424805961</v>
+        <v>0.4366402413539845</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.001041359863946711</v>
+      </c>
+      <c r="I8">
+        <v>0.002965653942711199</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.08695381223470378</v>
-      </c>
       <c r="K8">
-        <v>0.7372041275678214</v>
+        <v>0.1919618282716513</v>
       </c>
       <c r="L8">
-        <v>0.1245261854690725</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1843657221549719</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.968445906354816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9151800637488918</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.217118904187373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197051874997243</v>
+        <v>3.034167951830682</v>
       </c>
       <c r="C9">
-        <v>0.1278018566541164</v>
+        <v>0.9138022050968573</v>
       </c>
       <c r="D9">
-        <v>0.07640112117215381</v>
+        <v>0.068731009086477</v>
       </c>
       <c r="E9">
-        <v>0.05725973768752191</v>
+        <v>0.3131120934761356</v>
       </c>
       <c r="F9">
-        <v>1.121570752921663</v>
+        <v>0.5264719088678618</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.004313941495737827</v>
+      </c>
+      <c r="I9">
+        <v>0.007139554920050806</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.0821761688923548</v>
-      </c>
       <c r="K9">
-        <v>0.9899499604856317</v>
+        <v>0.1819417379245323</v>
       </c>
       <c r="L9">
-        <v>0.1507976761904359</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2416029290345385</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.994164795047965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.22416562267118</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.401751739401249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.420626292987436</v>
+        <v>3.606088285910118</v>
       </c>
       <c r="C10">
-        <v>0.1307225680065613</v>
+        <v>1.073900233480515</v>
       </c>
       <c r="D10">
-        <v>0.08781282211540287</v>
+        <v>0.08120635001265697</v>
       </c>
       <c r="E10">
-        <v>0.05862082381792533</v>
+        <v>0.3364937215759696</v>
       </c>
       <c r="F10">
-        <v>1.154055302862332</v>
+        <v>0.5850211438035657</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.007744941805290839</v>
+      </c>
+      <c r="I10">
+        <v>0.01149567833956056</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.07901884094841805</v>
-      </c>
       <c r="K10">
-        <v>1.177076947816545</v>
+        <v>0.1716987655355418</v>
       </c>
       <c r="L10">
-        <v>0.1707047229901519</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2843696452296527</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.037811176611967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.415524998778096</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.512313017520057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.523168008422999</v>
+        <v>4.034652331485006</v>
       </c>
       <c r="C11">
-        <v>0.1320746995189808</v>
+        <v>1.177790923693237</v>
       </c>
       <c r="D11">
-        <v>0.09306595921201932</v>
+        <v>0.09955544739287348</v>
       </c>
       <c r="E11">
-        <v>0.05930282773789841</v>
+        <v>0.1678634206522034</v>
       </c>
       <c r="F11">
-        <v>1.170933000752569</v>
+        <v>0.5244292538325865</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02544803952081054</v>
+      </c>
+      <c r="I11">
+        <v>0.01356145503617245</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.07766210137535978</v>
-      </c>
       <c r="K11">
-        <v>1.262677868070369</v>
+        <v>0.1324815993988384</v>
       </c>
       <c r="L11">
-        <v>0.179914899516973</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3040220321551743</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.063637334637917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.194418336575723</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.284082493867658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.562136305636358</v>
+        <v>4.285171006661926</v>
       </c>
       <c r="C12">
-        <v>0.1325903677319431</v>
+        <v>1.227432849315335</v>
       </c>
       <c r="D12">
-        <v>0.09506492580001691</v>
+        <v>0.1131191193211833</v>
       </c>
       <c r="E12">
-        <v>0.05957050482239268</v>
+        <v>0.08632724105254574</v>
       </c>
       <c r="F12">
-        <v>1.177645027250477</v>
+        <v>0.466347605743394</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06323847499983515</v>
+      </c>
+      <c r="I12">
+        <v>0.01405738482760732</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.07716005254398262</v>
-      </c>
       <c r="K12">
-        <v>1.295175172840317</v>
+        <v>0.1076428229895949</v>
       </c>
       <c r="L12">
-        <v>0.1834267190736085</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3114959250686695</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.07432901246122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9852364495961083</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.090962487850192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.553737354077356</v>
+        <v>4.409876561578585</v>
       </c>
       <c r="C13">
-        <v>0.1324791427003404</v>
+        <v>1.243057416297404</v>
       </c>
       <c r="D13">
-        <v>0.09463396678302871</v>
+        <v>0.1240024568279239</v>
       </c>
       <c r="E13">
-        <v>0.05951243062362188</v>
+        <v>0.0655596699037142</v>
       </c>
       <c r="F13">
-        <v>1.176184891275526</v>
+        <v>0.403627094388213</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1179949901893451</v>
+      </c>
+      <c r="I13">
+        <v>0.01360605784226543</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.0772676518674249</v>
-      </c>
       <c r="K13">
-        <v>1.288172417407992</v>
+        <v>0.09031617489637078</v>
       </c>
       <c r="L13">
-        <v>0.1826692807588088</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3098848078712919</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.071984925448021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7754679307965304</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9030642077449329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52637108269974</v>
+        <v>4.43988936718182</v>
       </c>
       <c r="C14">
-        <v>0.1321170491728552</v>
+        <v>1.239721880419154</v>
       </c>
       <c r="D14">
-        <v>0.0932302157640521</v>
+        <v>0.1305436289348307</v>
       </c>
       <c r="E14">
-        <v>0.05932465869361714</v>
+        <v>0.08661898918898991</v>
       </c>
       <c r="F14">
-        <v>1.171478661538771</v>
+        <v>0.3578317661670667</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1666479843138831</v>
+      </c>
+      <c r="I14">
+        <v>0.01294942305615443</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.07762056097530134</v>
-      </c>
       <c r="K14">
-        <v>1.265349713794961</v>
+        <v>0.08199102347646026</v>
       </c>
       <c r="L14">
-        <v>0.1802033239879819</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3046362520721786</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.064498352088265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6324432691421791</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7751605813415949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.509626965884308</v>
+        <v>4.418623416608341</v>
       </c>
       <c r="C15">
-        <v>0.1318957395324745</v>
+        <v>1.232940844518112</v>
       </c>
       <c r="D15">
-        <v>0.09237166843951883</v>
+        <v>0.1315258653169593</v>
       </c>
       <c r="E15">
-        <v>0.05921088105457883</v>
+        <v>0.09610550995734357</v>
       </c>
       <c r="F15">
-        <v>1.168638318146094</v>
+        <v>0.3448595313664242</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1788957700637326</v>
+      </c>
+      <c r="I15">
+        <v>0.01267708195759987</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.07783826280225981</v>
-      </c>
       <c r="K15">
-        <v>1.251381262350293</v>
+        <v>0.08082365583811502</v>
       </c>
       <c r="L15">
-        <v>0.1786960556479542</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3014256318566666</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.060033005005693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.595608307471899</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7419020126073264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.41394326740371</v>
+        <v>4.140694844495329</v>
       </c>
       <c r="C16">
-        <v>0.1306346980048971</v>
+        <v>1.161807824734012</v>
       </c>
       <c r="D16">
-        <v>0.08747083135337874</v>
+        <v>0.123668770183528</v>
       </c>
       <c r="E16">
-        <v>0.05857754974547724</v>
+        <v>0.09097325592586003</v>
       </c>
       <c r="F16">
-        <v>1.152996146333663</v>
+        <v>0.3316841890162436</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1650085928776974</v>
+      </c>
+      <c r="I16">
+        <v>0.0108392092271572</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.07910913127407326</v>
-      </c>
       <c r="K16">
-        <v>1.17149344797204</v>
+        <v>0.08754464797171924</v>
       </c>
       <c r="L16">
-        <v>0.1701060842920228</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2830895891341711</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.036247998775252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5632387454389018</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7297524905204824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.355470872444869</v>
+        <v>3.912410003968148</v>
       </c>
       <c r="C17">
-        <v>0.1298672884519974</v>
+        <v>1.109368963121881</v>
       </c>
       <c r="D17">
-        <v>0.08448074385104576</v>
+        <v>0.1141744234468689</v>
       </c>
       <c r="E17">
-        <v>0.05820537951583837</v>
+        <v>0.07009029676724055</v>
       </c>
       <c r="F17">
-        <v>1.143951092116367</v>
+        <v>0.3456258267026158</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1266998168194107</v>
+      </c>
+      <c r="I17">
+        <v>0.009842773406202987</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.07990933505525355</v>
-      </c>
       <c r="K17">
-        <v>1.122616162932047</v>
+        <v>0.09685484829820901</v>
       </c>
       <c r="L17">
-        <v>0.1648772816224096</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2718940750054344</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.0232227649729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6115063742495437</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7870788386727412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.321916710411813</v>
+        <v>3.704152862457761</v>
       </c>
       <c r="C18">
-        <v>0.1294280878820757</v>
+        <v>1.064267051186732</v>
       </c>
       <c r="D18">
-        <v>0.08276669854171104</v>
+        <v>0.1023751782195319</v>
       </c>
       <c r="E18">
-        <v>0.05799720755576665</v>
+        <v>0.06443283543110523</v>
       </c>
       <c r="F18">
-        <v>1.138945109874498</v>
+        <v>0.3871087431733642</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07395856596696859</v>
+      </c>
+      <c r="I18">
+        <v>0.009178043522704904</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.08037706036727243</v>
-      </c>
       <c r="K18">
-        <v>1.094547161447622</v>
+        <v>0.1120232463454673</v>
       </c>
       <c r="L18">
-        <v>0.1618842186851168</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2654730829992324</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.016289636446515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7442528103333785</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9213991737345992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.310568659565746</v>
+        <v>3.530016384145767</v>
       </c>
       <c r="C19">
-        <v>0.1292797509950674</v>
+        <v>1.036023966008798</v>
       </c>
       <c r="D19">
-        <v>0.08218731993331119</v>
+        <v>0.09078323235694086</v>
       </c>
       <c r="E19">
-        <v>0.05792772459429507</v>
+        <v>0.1180042225919813</v>
       </c>
       <c r="F19">
-        <v>1.137283366383144</v>
+        <v>0.4471738003116386</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02956393392401679</v>
+      </c>
+      <c r="I19">
+        <v>0.009320174982092588</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.08053669872601965</v>
-      </c>
       <c r="K19">
-        <v>1.085050623049312</v>
+        <v>0.1330148069335024</v>
       </c>
       <c r="L19">
-        <v>0.160873236632483</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2633020967363819</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.014036582814356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9526186330867716</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.110262666821569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.361687202014082</v>
+        <v>3.455299264415885</v>
       </c>
       <c r="C20">
-        <v>0.1299487516628446</v>
+        <v>1.042706019734055</v>
       </c>
       <c r="D20">
-        <v>0.08479844044757812</v>
+        <v>0.07875294596291837</v>
       </c>
       <c r="E20">
-        <v>0.05824438534458309</v>
+        <v>0.3284616487313059</v>
       </c>
       <c r="F20">
-        <v>1.14489348517975</v>
+        <v>0.5628663527647433</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.006722540880519823</v>
+      </c>
+      <c r="I20">
+        <v>0.01089583126576787</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.0798233769836596</v>
-      </c>
       <c r="K20">
-        <v>1.127814592013976</v>
+        <v>0.1706741255139264</v>
       </c>
       <c r="L20">
-        <v>0.1654323920699596</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2730839303041535</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.02455113216854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.365622369271208</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.461320831447381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.534405328201103</v>
+        <v>3.865516219501956</v>
       </c>
       <c r="C21">
-        <v>0.1322233036287699</v>
+        <v>1.160022020040685</v>
       </c>
       <c r="D21">
-        <v>0.09364226094644579</v>
+        <v>0.08618287757710874</v>
       </c>
       <c r="E21">
-        <v>0.0593795531300465</v>
+        <v>0.3872077749190055</v>
       </c>
       <c r="F21">
-        <v>1.172852132529059</v>
+        <v>0.6259915413316008</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.01005209689515037</v>
+      </c>
+      <c r="I21">
+        <v>0.01467020615160575</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.07751658263564387</v>
-      </c>
       <c r="K21">
-        <v>1.272050953229012</v>
+        <v>0.1708943346795522</v>
       </c>
       <c r="L21">
-        <v>0.1809269644690374</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3061769832178882</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.066672149665152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.57020548540639</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.604744288583021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.648099962927176</v>
+        <v>4.143859250551657</v>
       </c>
       <c r="C22">
-        <v>0.1337312447200247</v>
+        <v>1.234155377858031</v>
       </c>
       <c r="D22">
-        <v>0.09947927011805291</v>
+        <v>0.09141091079347774</v>
       </c>
       <c r="E22">
-        <v>0.06017653497901598</v>
+        <v>0.4126731471859131</v>
       </c>
       <c r="F22">
-        <v>1.193004304441914</v>
+        <v>0.6655726427051718</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.01242581688439531</v>
+      </c>
+      <c r="I22">
+        <v>0.01715249650244477</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.07607741051466732</v>
-      </c>
       <c r="K22">
-        <v>1.366803332676682</v>
+        <v>0.1707291216135012</v>
       </c>
       <c r="L22">
-        <v>0.1911951786716983</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3279933270458457</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.099543173250026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.684595501362722</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.692837766653099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.587338399190486</v>
+        <v>3.99580376338514</v>
       </c>
       <c r="C23">
-        <v>0.1329243760558043</v>
+        <v>1.1903797450409</v>
       </c>
       <c r="D23">
-        <v>0.09635844275398142</v>
+        <v>0.08832297608038431</v>
       </c>
       <c r="E23">
-        <v>0.05974599828555327</v>
+        <v>0.3993652428971046</v>
       </c>
       <c r="F23">
-        <v>1.182070181536929</v>
+        <v>0.6466767905328226</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.01113676050029516</v>
+      </c>
+      <c r="I23">
+        <v>0.01555384026348783</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.07683916276106295</v>
-      </c>
       <c r="K23">
-        <v>1.316182995854007</v>
+        <v>0.1720598050920685</v>
       </c>
       <c r="L23">
-        <v>0.1857012090184043</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3163310821059255</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.081491884558488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.622753902774321</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.653094548651268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.35887660638511</v>
+        <v>3.434616918248707</v>
       </c>
       <c r="C24">
-        <v>0.1299119159564626</v>
+        <v>1.032300709000282</v>
       </c>
       <c r="D24">
-        <v>0.08465479431647083</v>
+        <v>0.07714430046020482</v>
       </c>
       <c r="E24">
-        <v>0.05822673279194746</v>
+        <v>0.3487091229020791</v>
       </c>
       <c r="F24">
-        <v>1.144466825978753</v>
+        <v>0.5733347861733833</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.00681767365894298</v>
+      </c>
+      <c r="I24">
+        <v>0.01048370316169578</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.07986221473512067</v>
-      </c>
       <c r="K24">
-        <v>1.125464286063277</v>
+        <v>0.1760246987070531</v>
       </c>
       <c r="L24">
-        <v>0.1651813861474452</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2725459488399196</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.023948851854755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.390601525096429</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.496247138157202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115348922646092</v>
+        <v>2.829528014592768</v>
       </c>
       <c r="C25">
-        <v>0.1267454373520707</v>
+        <v>0.8632245514494628</v>
       </c>
       <c r="D25">
-        <v>0.07224837140383755</v>
+        <v>0.06512869373219843</v>
       </c>
       <c r="E25">
-        <v>0.05681181589387663</v>
+        <v>0.2944022815207461</v>
       </c>
       <c r="F25">
-        <v>1.111352158034535</v>
+        <v>0.4980404722393885</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.003230407009225944</v>
+      </c>
+      <c r="I25">
+        <v>0.00615513787198374</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.08340765752850743</v>
-      </c>
       <c r="K25">
-        <v>0.9213747035650215</v>
+        <v>0.1823128034063153</v>
       </c>
       <c r="L25">
-        <v>0.1435914215308784</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2260065291363915</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.983051846868022</v>
+        <v>1.141525016398845</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.33849281168051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.384758608310392</v>
+        <v>2.38468433299164</v>
       </c>
       <c r="C2">
-        <v>0.7297686364557308</v>
+        <v>0.7669084632744614</v>
       </c>
       <c r="D2">
-        <v>0.05560311639526105</v>
+        <v>0.05820914444214509</v>
       </c>
       <c r="E2">
-        <v>0.2552575941817068</v>
+        <v>0.253666914140446</v>
       </c>
       <c r="F2">
-        <v>0.4509790707299572</v>
+        <v>0.4258297678408383</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001374618063390454</v>
+        <v>0.001447425380642908</v>
       </c>
       <c r="I2">
-        <v>0.003206021134027459</v>
+        <v>0.003628388568648333</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.1916885332313711</v>
+        <v>0.1746395283130813</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1147288284654113</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03156206903196512</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9570523565319391</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.249025666573829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9651799916561004</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.164681505878661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.082010208675683</v>
+        <v>2.084250184808013</v>
       </c>
       <c r="C3">
-        <v>0.6454293668556375</v>
+        <v>0.6710272692684214</v>
       </c>
       <c r="D3">
-        <v>0.04955713081384516</v>
+        <v>0.05133469038153748</v>
       </c>
       <c r="E3">
-        <v>0.2283215725919234</v>
+        <v>0.2277973698544002</v>
       </c>
       <c r="F3">
-        <v>0.4172785937073655</v>
+        <v>0.3969161930270531</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005319371556600228</v>
+        <v>0.0005976788176174086</v>
       </c>
       <c r="I3">
-        <v>0.001931296100541324</v>
+        <v>0.002383456184926303</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.1970373947686461</v>
+        <v>0.181598288661883</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1205294306291016</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03184486761769634</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8333063292428093</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.182186105642728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8396780315568648</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.112580614010255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895716408549021</v>
+        <v>1.899286029189057</v>
       </c>
       <c r="C4">
-        <v>0.5939533947696418</v>
+        <v>0.6126764817134642</v>
       </c>
       <c r="D4">
-        <v>0.04585622667198663</v>
+        <v>0.04714047957674694</v>
       </c>
       <c r="E4">
-        <v>0.2117494640985811</v>
+        <v>0.211867662552244</v>
       </c>
       <c r="F4">
-        <v>0.3971243017440429</v>
+        <v>0.3795682137152596</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002006158110097189</v>
+        <v>0.0002499172229741831</v>
       </c>
       <c r="I4">
-        <v>0.00134120629806489</v>
+        <v>0.001780049608888223</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2006483639377805</v>
+        <v>0.1861261780037555</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1242716013553444</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03254094053751011</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7574130394668614</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.142774591451712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.762713912608433</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.081797351805221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819561379909715</v>
+        <v>1.823655876847567</v>
       </c>
       <c r="C5">
-        <v>0.5740480608975815</v>
+        <v>0.5900055148960917</v>
       </c>
       <c r="D5">
-        <v>0.04442132175612556</v>
+        <v>0.04550723865001771</v>
       </c>
       <c r="E5">
-        <v>0.2049102533662186</v>
+        <v>0.2052904224841399</v>
       </c>
       <c r="F5">
-        <v>0.3884490276232029</v>
+        <v>0.3720418887062635</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000109255477506176</v>
+        <v>0.000148980998212922</v>
       </c>
       <c r="I5">
-        <v>0.001205419455773793</v>
+        <v>0.001643569829966829</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2018539244553956</v>
+        <v>0.1877258437159313</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1256693201752874</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03289346599747134</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.72668262920525</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.125169465470009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.731542256214091</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.067741431445512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.806753688133512</v>
+        <v>1.810938531002421</v>
       </c>
       <c r="C6">
-        <v>0.5719760994113301</v>
+        <v>0.5874570003829547</v>
       </c>
       <c r="D6">
-        <v>0.04427007628537183</v>
+        <v>0.04532189089503902</v>
       </c>
       <c r="E6">
-        <v>0.2036826696491296</v>
+        <v>0.2041099338217265</v>
       </c>
       <c r="F6">
-        <v>0.386297401405912</v>
+        <v>0.3701254115375576</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.644925621810074E-05</v>
+        <v>0.0001343841358101283</v>
       </c>
       <c r="I6">
-        <v>0.001265705413200813</v>
+        <v>0.001719654285306405</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2016391743649955</v>
+        <v>0.1876220308365948</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1256947524585499</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03288582360900616</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7218047393638827</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.119914841201719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.726582153048021</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.063236799608802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894264758019489</v>
+        <v>1.897853970846938</v>
       </c>
       <c r="C7">
-        <v>0.5970513094323167</v>
+        <v>0.6156875151584984</v>
       </c>
       <c r="D7">
-        <v>0.04607491382215301</v>
+        <v>0.04735313263539354</v>
       </c>
       <c r="E7">
-        <v>0.2114083434125149</v>
+        <v>0.2115406090404264</v>
       </c>
       <c r="F7">
-        <v>0.3950432485102695</v>
+        <v>0.3776329180622611</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0001983965113041553</v>
+        <v>0.000247504348043881</v>
       </c>
       <c r="I7">
-        <v>0.00154305283691869</v>
+        <v>0.002024165022259439</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.1995199594543919</v>
+        <v>0.1851366678279032</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1237409064194157</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03232683062695152</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7576125325046945</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.136105082829388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7628825241770656</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.075647010252197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.279880623525685</v>
+        <v>2.280643578226034</v>
       </c>
       <c r="C8">
-        <v>0.705121174680869</v>
+        <v>0.7381976092021318</v>
       </c>
       <c r="D8">
-        <v>0.05383461126520928</v>
+        <v>0.05614923705306296</v>
       </c>
       <c r="E8">
-        <v>0.2456459104435424</v>
+        <v>0.2444406792319143</v>
       </c>
       <c r="F8">
-        <v>0.4366402413539845</v>
+        <v>0.4133568419872375</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001041359863946711</v>
+        <v>0.001114345461979305</v>
       </c>
       <c r="I8">
-        <v>0.002965653942711199</v>
+        <v>0.003458663443593579</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.1919618282716513</v>
+        <v>0.175685487894885</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1160588171436245</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03119594077734611</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9151800637488918</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.217118904187373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9226681002358674</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.138631349454471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.034167951830682</v>
+        <v>3.028521253541385</v>
       </c>
       <c r="C9">
-        <v>0.9138022050968573</v>
+        <v>0.9769499783146216</v>
       </c>
       <c r="D9">
-        <v>0.068731009086477</v>
+        <v>0.07320410927334819</v>
       </c>
       <c r="E9">
-        <v>0.3131120934761356</v>
+        <v>0.3091529843982102</v>
       </c>
       <c r="F9">
-        <v>0.5264719088678618</v>
+        <v>0.4903091352055213</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.004313941495737827</v>
+        <v>0.004328350995079333</v>
       </c>
       <c r="I9">
-        <v>0.007139554920050806</v>
+        <v>0.007307917184768975</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.1819417379245323</v>
+        <v>0.1610761682735351</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1032634653032716</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03373281015676888</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.22416562267118</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.401751739401249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.236071550315216</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.283463716871921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.606088285910118</v>
+        <v>3.595260053287063</v>
       </c>
       <c r="C10">
-        <v>1.073900233480515</v>
+        <v>1.158504788647633</v>
       </c>
       <c r="D10">
-        <v>0.08120635001265697</v>
+        <v>0.08727135998915259</v>
       </c>
       <c r="E10">
-        <v>0.3364937215759696</v>
+        <v>0.3307930425188275</v>
       </c>
       <c r="F10">
-        <v>0.5850211438035657</v>
+        <v>0.5401331537789886</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.007744941805290839</v>
+        <v>0.007642605192905716</v>
       </c>
       <c r="I10">
-        <v>0.01149567833956056</v>
+        <v>0.01124742358495379</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.1716987655355418</v>
+        <v>0.148250544861515</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09350198300249701</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03683355764943208</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.415524998778096</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.512313017520057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.430113674207732</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.367673640062861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034652331485006</v>
+        <v>4.023071431874484</v>
       </c>
       <c r="C11">
-        <v>1.177790923693237</v>
+        <v>1.256733438545211</v>
       </c>
       <c r="D11">
-        <v>0.09955544739287348</v>
+        <v>0.1056187845534424</v>
       </c>
       <c r="E11">
-        <v>0.1678634206522034</v>
+        <v>0.1642086311480853</v>
       </c>
       <c r="F11">
-        <v>0.5244292538325865</v>
+        <v>0.4874223340398771</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02544803952081054</v>
+        <v>0.02531529642406483</v>
       </c>
       <c r="I11">
-        <v>0.01356145503617245</v>
+        <v>0.01322441457520895</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.1324815993988384</v>
+        <v>0.1167834074940881</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08085712241602305</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02745283801914233</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.194418336575723</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.284082493867658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.205935103965942</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.168832357234606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.285171006661926</v>
+        <v>4.274084534892665</v>
       </c>
       <c r="C12">
-        <v>1.227432849315335</v>
+        <v>1.296209185587543</v>
       </c>
       <c r="D12">
-        <v>0.1131191193211833</v>
+        <v>0.1186707834147001</v>
       </c>
       <c r="E12">
-        <v>0.08632724105254574</v>
+        <v>0.08427291157750538</v>
       </c>
       <c r="F12">
-        <v>0.466347605743394</v>
+        <v>0.4370350611867337</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06323847499983515</v>
+        <v>0.06310491624911663</v>
       </c>
       <c r="I12">
-        <v>0.01405738482760732</v>
+        <v>0.01365780383066717</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.1076428229895949</v>
+        <v>0.09770142481485244</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07427195690734401</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02032685373148091</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9852364495961083</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.090962487850192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9939694387881488</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.002490262226416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.409876561578585</v>
+        <v>4.400367364953524</v>
       </c>
       <c r="C13">
-        <v>1.243057416297404</v>
+        <v>1.297669482854133</v>
       </c>
       <c r="D13">
-        <v>0.1240024568279239</v>
+        <v>0.1286070690705401</v>
       </c>
       <c r="E13">
-        <v>0.0655596699037142</v>
+        <v>0.06476402458012576</v>
       </c>
       <c r="F13">
-        <v>0.403627094388213</v>
+        <v>0.3824539289016684</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1179949901893451</v>
+        <v>0.1178805640574438</v>
       </c>
       <c r="I13">
-        <v>0.01360605784226543</v>
+        <v>0.01324751838205263</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.09031617489637078</v>
+        <v>0.08509601036379255</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07061510932251869</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01423465678851965</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7754679307965304</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9030642077449329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7814883697134505</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.841384630335142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.43988936718182</v>
+        <v>4.431975496348798</v>
       </c>
       <c r="C14">
-        <v>1.239721880419154</v>
+        <v>1.282599146270684</v>
       </c>
       <c r="D14">
-        <v>0.1305436289348307</v>
+        <v>0.1342640571731124</v>
       </c>
       <c r="E14">
-        <v>0.08661898918898991</v>
+        <v>0.08643402341980178</v>
       </c>
       <c r="F14">
-        <v>0.3578317661670667</v>
+        <v>0.3424027589828285</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1666479843138831</v>
+        <v>0.1665531149718049</v>
       </c>
       <c r="I14">
-        <v>0.01294942305615443</v>
+        <v>0.0126783042753571</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.08199102347646026</v>
+        <v>0.07940509979980348</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06921466488073524</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01076551057477104</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6324432691421791</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7751605813415949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6366712254003843</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7315844809504597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.418623416608341</v>
+        <v>4.411331234931311</v>
       </c>
       <c r="C15">
-        <v>1.232940844518112</v>
+        <v>1.272199393540575</v>
       </c>
       <c r="D15">
-        <v>0.1315258653169593</v>
+        <v>0.1349560015359117</v>
       </c>
       <c r="E15">
-        <v>0.09610550995734357</v>
+        <v>0.09604277211189327</v>
       </c>
       <c r="F15">
-        <v>0.3448595313664242</v>
+        <v>0.3310054137642169</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1788957700637326</v>
+        <v>0.1788099336642546</v>
       </c>
       <c r="I15">
-        <v>0.01267708195759987</v>
+        <v>0.01247221504703866</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.08082365583811502</v>
+        <v>0.07879556331691262</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06915812952922606</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01002803809482788</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.595608307471899</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7419020126073264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5993743713774151</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.703102393325878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.140694844495329</v>
+        <v>4.135485473051006</v>
       </c>
       <c r="C16">
-        <v>1.161807824734012</v>
+        <v>1.194876360006333</v>
       </c>
       <c r="D16">
-        <v>0.123668770183528</v>
+        <v>0.1265653618018092</v>
       </c>
       <c r="E16">
-        <v>0.09097325592586003</v>
+        <v>0.09107508213024218</v>
       </c>
       <c r="F16">
-        <v>0.3316841890162436</v>
+        <v>0.3195808512280038</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1650085928776974</v>
+        <v>0.1649651572728033</v>
       </c>
       <c r="I16">
-        <v>0.0108392092271572</v>
+        <v>0.01087161762179889</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.08754464797171924</v>
+        <v>0.08526523461454882</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07170240918209969</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01063151710587551</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5632387454389018</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7297524905204824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5665672628889382</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6953760897708889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.912410003968148</v>
+        <v>3.907900275219106</v>
       </c>
       <c r="C17">
-        <v>1.109368963121881</v>
+        <v>1.143968748439306</v>
       </c>
       <c r="D17">
-        <v>0.1141744234468689</v>
+        <v>0.1171567629508701</v>
       </c>
       <c r="E17">
-        <v>0.07009029676724055</v>
+        <v>0.07010738743073652</v>
       </c>
       <c r="F17">
-        <v>0.3456258267026158</v>
+        <v>0.3319608856557679</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1266998168194107</v>
+        <v>0.126676903503494</v>
       </c>
       <c r="I17">
-        <v>0.009842773406202987</v>
+        <v>0.01000438455541186</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.09685484829820901</v>
+        <v>0.09319069230636945</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07476639197873514</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01262914002050142</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6115063742495437</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7870788386727412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6153796290718958</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7471201588890324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.704152862457761</v>
+        <v>3.69927494587148</v>
       </c>
       <c r="C18">
-        <v>1.064267051186732</v>
+        <v>1.106933714386344</v>
       </c>
       <c r="D18">
-        <v>0.1023751782195319</v>
+        <v>0.1059129923095554</v>
       </c>
       <c r="E18">
-        <v>0.06443283543110523</v>
+        <v>0.06391344521166653</v>
       </c>
       <c r="F18">
-        <v>0.3871087431733642</v>
+        <v>0.3684919353754523</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07395856596696859</v>
+        <v>0.07394400834527204</v>
       </c>
       <c r="I18">
-        <v>0.009178043522704904</v>
+        <v>0.009348402347416851</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.1120232463454673</v>
+        <v>0.1052683444202041</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07950058613662847</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01656461923424501</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7442528103333785</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9213991737345992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7497737059374288</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8650021550519966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.530016384145767</v>
+        <v>3.5239945579699</v>
       </c>
       <c r="C19">
-        <v>1.036023966008798</v>
+        <v>1.090898390186794</v>
       </c>
       <c r="D19">
-        <v>0.09078323235694086</v>
+        <v>0.09508246268669041</v>
       </c>
       <c r="E19">
-        <v>0.1180042225919813</v>
+        <v>0.1162286180432659</v>
       </c>
       <c r="F19">
-        <v>0.4471738003116386</v>
+        <v>0.4208799647623351</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02956393392401679</v>
+        <v>0.02954688016706797</v>
       </c>
       <c r="I19">
-        <v>0.009320174982092588</v>
+        <v>0.009511543607420236</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.1330148069335024</v>
+        <v>0.1213357874699437</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08570916081049518</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02240204254141709</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9526186330867716</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.110262666821569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9608195085005491</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.028093823040706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.455299264415885</v>
+        <v>3.445951990828917</v>
       </c>
       <c r="C20">
-        <v>1.042706019734055</v>
+        <v>1.121542552503513</v>
       </c>
       <c r="D20">
-        <v>0.07875294596291837</v>
+        <v>0.08439228669669774</v>
       </c>
       <c r="E20">
-        <v>0.3284616487313059</v>
+        <v>0.323273474796558</v>
       </c>
       <c r="F20">
-        <v>0.5628663527647433</v>
+        <v>0.5208792556015425</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006722540880519823</v>
+        <v>0.006656887621287133</v>
       </c>
       <c r="I20">
-        <v>0.01089583126576787</v>
+        <v>0.0109324346719113</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.1706741255139264</v>
+        <v>0.1485537366906975</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09489351742633367</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03469504451397931</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.365622369271208</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.461320831447381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.379413149865428</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.325823640599879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.865516219501956</v>
+        <v>3.851602510804696</v>
       </c>
       <c r="C21">
-        <v>1.160022020040685</v>
+        <v>1.258396311223635</v>
       </c>
       <c r="D21">
-        <v>0.08618287757710874</v>
+        <v>0.09318377980635262</v>
       </c>
       <c r="E21">
-        <v>0.3872077749190055</v>
+        <v>0.3800945044101312</v>
       </c>
       <c r="F21">
-        <v>0.6259915413316008</v>
+        <v>0.5748088582431308</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01005209689515037</v>
+        <v>0.009861419401483728</v>
       </c>
       <c r="I21">
-        <v>0.01467020615160575</v>
+        <v>0.01426499050137497</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.1708943346795522</v>
+        <v>0.1448955197234412</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08983114375878287</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04013921459105596</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.57020548540639</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.604744288583021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.586836608225141</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.440313736923287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.143859250551657</v>
+        <v>4.126855676362595</v>
       </c>
       <c r="C22">
-        <v>1.234155377858031</v>
+        <v>1.344600703603817</v>
       </c>
       <c r="D22">
-        <v>0.09141091079347774</v>
+        <v>0.09927668201548556</v>
       </c>
       <c r="E22">
-        <v>0.4126731471859131</v>
+        <v>0.4044403873456375</v>
       </c>
       <c r="F22">
-        <v>0.6655726427051718</v>
+        <v>0.6086976455841224</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01242581688439531</v>
+        <v>0.01213585760775071</v>
       </c>
       <c r="I22">
-        <v>0.01715249650244477</v>
+        <v>0.01634255898299486</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.1707291216135012</v>
+        <v>0.1423862899455557</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08646424362376592</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04411755422654551</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.684595501362722</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.692837766653099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.702832214520654</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.510624202002418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.99580376338514</v>
+        <v>3.980443593917073</v>
       </c>
       <c r="C23">
-        <v>1.1903797450409</v>
+        <v>1.294343613420438</v>
       </c>
       <c r="D23">
-        <v>0.08832297608038431</v>
+        <v>0.09572411262721658</v>
       </c>
       <c r="E23">
-        <v>0.3993652428971046</v>
+        <v>0.3917157761345109</v>
       </c>
       <c r="F23">
-        <v>0.6466767905328226</v>
+        <v>0.5926535628785246</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01113676050029516</v>
+        <v>0.01090136665032689</v>
       </c>
       <c r="I23">
-        <v>0.01555384026348783</v>
+        <v>0.01490201434431526</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.1720598050920685</v>
+        <v>0.1447381636735123</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08858514477175028</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04239852291406621</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.622753902774321</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.653094548651268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.640166500419838</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.479666542034153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.434616918248707</v>
+        <v>3.425148755444923</v>
       </c>
       <c r="C24">
-        <v>1.032300709000282</v>
+        <v>1.112189354122734</v>
       </c>
       <c r="D24">
-        <v>0.07714430046020482</v>
+        <v>0.08281905390943933</v>
       </c>
       <c r="E24">
-        <v>0.3487091229020791</v>
+        <v>0.3432506655056144</v>
       </c>
       <c r="F24">
-        <v>0.5733347861733833</v>
+        <v>0.5301026870960399</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00681767365894298</v>
+        <v>0.006750658880220195</v>
       </c>
       <c r="I24">
-        <v>0.01048370316169578</v>
+        <v>0.01042082532930788</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.1760246987070531</v>
+        <v>0.1527766343726462</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09649288091341646</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03626632557267406</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.390601525096429</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.496247138157202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.404797116716964</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.356256436136363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.829528014592768</v>
+        <v>2.825752234976505</v>
       </c>
       <c r="C25">
-        <v>0.8632245514494628</v>
+        <v>0.9180332796258028</v>
       </c>
       <c r="D25">
-        <v>0.06512869373219843</v>
+        <v>0.06900369727267019</v>
       </c>
       <c r="E25">
-        <v>0.2944022815207461</v>
+        <v>0.2912240716722962</v>
       </c>
       <c r="F25">
-        <v>0.4980404722393885</v>
+        <v>0.4657663499221485</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.003230407009225944</v>
+        <v>0.003273463137101307</v>
       </c>
       <c r="I25">
-        <v>0.00615513787198374</v>
+        <v>0.00652825221693476</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.1823128034063153</v>
+        <v>0.1630714627838366</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.105854145810488</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03199698409947516</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.141525016398845</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.33849281168051</v>
+        <v>1.152192659684275</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.232400487458875</v>
       </c>
     </row>
   </sheetData>
